--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89249379291207</v>
+        <v>20.89249379291219</v>
       </c>
       <c r="C2">
-        <v>27.8822667301499</v>
+        <v>27.88226673014963</v>
       </c>
       <c r="D2">
-        <v>9.617730074943088</v>
+        <v>9.617730074943118</v>
       </c>
       <c r="E2">
         <v>19.18904348228519</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.73985813646024</v>
+        <v>64.73985813646044</v>
       </c>
       <c r="I2">
-        <v>10.56980635647193</v>
+        <v>10.5698063564719</v>
       </c>
       <c r="J2">
-        <v>22.50438271799132</v>
+        <v>22.50438271799129</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.1522366828073</v>
+        <v>19.15223668280723</v>
       </c>
       <c r="C3">
-        <v>25.71854766552695</v>
+        <v>25.71854766552685</v>
       </c>
       <c r="D3">
-        <v>8.961352218872721</v>
+        <v>8.961352218872722</v>
       </c>
       <c r="E3">
-        <v>17.65971241032701</v>
+        <v>17.659712410327</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.48495560002649</v>
+        <v>60.48495560002605</v>
       </c>
       <c r="I3">
-        <v>9.775091173211241</v>
+        <v>9.775091173211232</v>
       </c>
       <c r="J3">
-        <v>20.68724870139009</v>
+        <v>20.68724870139005</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05961315124074</v>
+        <v>18.0596131512407</v>
       </c>
       <c r="C4">
-        <v>24.35204153941418</v>
+        <v>24.35204153941425</v>
       </c>
       <c r="D4">
-        <v>8.553677393908945</v>
+        <v>8.553677393908965</v>
       </c>
       <c r="E4">
-        <v>16.69401810403502</v>
+        <v>16.69401810403491</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.81194271720498</v>
+        <v>57.81194271720464</v>
       </c>
       <c r="I4">
-        <v>9.274399164506777</v>
+        <v>9.274399164506729</v>
       </c>
       <c r="J4">
-        <v>19.5412418484021</v>
+        <v>19.54124184840209</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60735123067896</v>
+        <v>17.60735123067909</v>
       </c>
       <c r="C5">
-        <v>23.78471980917794</v>
+        <v>23.78471980917811</v>
       </c>
       <c r="D5">
-        <v>8.386191372646062</v>
+        <v>8.386191372646083</v>
       </c>
       <c r="E5">
-        <v>16.29299594327528</v>
+        <v>16.29299594327532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.70628348615392</v>
+        <v>56.70628348615382</v>
       </c>
       <c r="I5">
-        <v>9.06674853053083</v>
+        <v>9.066748530530832</v>
       </c>
       <c r="J5">
-        <v>19.06568500536394</v>
+        <v>19.06568500536406</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53180581476471</v>
+        <v>17.5318058147647</v>
       </c>
       <c r="C6">
-        <v>23.68986181135028</v>
+        <v>23.6898618113501</v>
       </c>
       <c r="D6">
-        <v>8.358295406459341</v>
+        <v>8.358295406459426</v>
       </c>
       <c r="E6">
-        <v>16.22593347219001</v>
+        <v>16.2259334721901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.52167361598608</v>
+        <v>56.52167361598597</v>
       </c>
       <c r="I6">
-        <v>9.032039377179599</v>
+        <v>9.032039377179592</v>
       </c>
       <c r="J6">
-        <v>18.98617848285746</v>
+        <v>18.98617848285738</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05354329119495</v>
+        <v>18.05354329119476</v>
       </c>
       <c r="C7">
-        <v>24.34443385185252</v>
+        <v>24.34443385185237</v>
       </c>
       <c r="D7">
-        <v>8.551424261883463</v>
+        <v>8.551424261883479</v>
       </c>
       <c r="E7">
-        <v>16.6886410618574</v>
+        <v>16.68864106185739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.79709900065868</v>
+        <v>57.79709900065831</v>
       </c>
       <c r="I7">
-        <v>9.271613840114078</v>
+        <v>9.271613840114069</v>
       </c>
       <c r="J7">
-        <v>19.534864058476</v>
+        <v>19.5348640584758</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29682211613991</v>
+        <v>20.29682211613987</v>
       </c>
       <c r="C8">
-        <v>27.14348411720877</v>
+        <v>27.14348411720843</v>
       </c>
       <c r="D8">
-        <v>9.392185727257196</v>
+        <v>9.392185727257313</v>
       </c>
       <c r="E8">
-        <v>18.66674847217021</v>
+        <v>18.66674847217019</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.28447553768446</v>
+        <v>63.2844755376841</v>
       </c>
       <c r="I8">
-        <v>10.29815674465073</v>
+        <v>10.29815674465076</v>
       </c>
       <c r="J8">
-        <v>21.88350020702211</v>
+        <v>21.88350020702201</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.55996696391338</v>
+        <v>24.55996696391327</v>
       </c>
       <c r="C9">
-        <v>32.38537756365614</v>
+        <v>32.38537756365592</v>
       </c>
       <c r="D9">
-        <v>11.18681069123165</v>
+        <v>11.18681069123148</v>
       </c>
       <c r="E9">
-        <v>22.37908360687421</v>
+        <v>22.37908360687412</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.64539054708229</v>
+        <v>73.64539054708197</v>
       </c>
       <c r="I9">
-        <v>12.23418720182896</v>
+        <v>12.234187201829</v>
       </c>
       <c r="J9">
-        <v>26.30259189726737</v>
+        <v>26.30259189726728</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.71473702862143</v>
+        <v>27.71473702862137</v>
       </c>
       <c r="C10">
-        <v>36.19099014094818</v>
+        <v>36.19099014094805</v>
       </c>
       <c r="D10">
-        <v>12.51032891576471</v>
+        <v>12.51032891576448</v>
       </c>
       <c r="E10">
-        <v>25.08992962116779</v>
+        <v>25.08992962116765</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.18142206593572</v>
+        <v>81.18142206593505</v>
       </c>
       <c r="I10">
-        <v>13.65565689769287</v>
+        <v>13.65565689769286</v>
       </c>
       <c r="J10">
-        <v>29.53693066187232</v>
+        <v>29.53693066187228</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.1913330924274</v>
+        <v>29.19133309242726</v>
       </c>
       <c r="C11">
-        <v>37.94900030231964</v>
+        <v>37.94900030231928</v>
       </c>
       <c r="D11">
-        <v>13.1211801077423</v>
+        <v>13.12118010774212</v>
       </c>
       <c r="E11">
-        <v>26.34890500229154</v>
+        <v>26.34890500229143</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.65455932220812</v>
+        <v>84.65455932220733</v>
       </c>
       <c r="I11">
-        <v>14.31817579053633</v>
+        <v>14.31817579053638</v>
       </c>
       <c r="J11">
-        <v>31.04045392603332</v>
+        <v>31.04045392603307</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.76113183768237</v>
+        <v>29.76113183768231</v>
       </c>
       <c r="C12">
-        <v>38.62328895214034</v>
+        <v>38.62328895214019</v>
       </c>
       <c r="D12">
-        <v>13.35539637831183</v>
+        <v>13.35539637831189</v>
       </c>
       <c r="E12">
-        <v>26.83313532566032</v>
+        <v>26.83313532566033</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.98422135515804</v>
+        <v>85.98422135515771</v>
       </c>
       <c r="I12">
-        <v>14.57341944929852</v>
+        <v>14.57341944929844</v>
       </c>
       <c r="J12">
-        <v>31.61889064964769</v>
+        <v>31.61889064964763</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.63784549150249</v>
+        <v>29.63784549150253</v>
       </c>
       <c r="C13">
-        <v>38.47759036738746</v>
+        <v>38.47759036738741</v>
       </c>
       <c r="D13">
-        <v>13.30479093987654</v>
+        <v>13.30479093987649</v>
       </c>
       <c r="E13">
-        <v>26.7284366996017</v>
+        <v>26.72843669960163</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.69704609141189</v>
+        <v>85.69704609141216</v>
       </c>
       <c r="I13">
         <v>14.51821102553576</v>
       </c>
       <c r="J13">
-        <v>31.49381800430905</v>
+        <v>31.49381800430901</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.23796345868857</v>
+        <v>29.23796345868815</v>
       </c>
       <c r="C14">
-        <v>38.00426844167898</v>
+        <v>38.00426844167846</v>
       </c>
       <c r="D14">
-        <v>13.14037920473343</v>
+        <v>13.14037920473327</v>
       </c>
       <c r="E14">
-        <v>26.38856544967875</v>
+        <v>26.3885654496785</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.76360332443721</v>
+        <v>84.76360332443583</v>
       </c>
       <c r="I14">
-        <v>14.33907224443505</v>
+        <v>14.33907224443493</v>
       </c>
       <c r="J14">
-        <v>31.08782784341274</v>
+        <v>31.08782784341235</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99458286861893</v>
+        <v>28.99458286861904</v>
       </c>
       <c r="C15">
-        <v>37.71563486339014</v>
+        <v>37.71563486339034</v>
       </c>
       <c r="D15">
-        <v>13.04011031843027</v>
+        <v>13.04011031843023</v>
       </c>
       <c r="E15">
-        <v>26.18149856219257</v>
+        <v>26.18149856219265</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.19402160972338</v>
+        <v>84.19402160972353</v>
       </c>
       <c r="I15">
-        <v>14.22998960965196</v>
+        <v>14.22998960965199</v>
       </c>
       <c r="J15">
-        <v>30.84049443433535</v>
+        <v>30.84049443433545</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.61943078325528</v>
+        <v>27.61943078325536</v>
       </c>
       <c r="C16">
-        <v>36.07700012771996</v>
+        <v>36.07700012772007</v>
       </c>
       <c r="D16">
-        <v>12.4707103966974</v>
+        <v>12.47071039669752</v>
       </c>
       <c r="E16">
-        <v>25.00846024048542</v>
+        <v>25.00846024048538</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.955959697971</v>
+        <v>80.9559596979709</v>
       </c>
       <c r="I16">
-        <v>13.61283801251678</v>
+        <v>13.61283801251665</v>
       </c>
       <c r="J16">
-        <v>29.43966097063922</v>
+        <v>29.43966097063925</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.7892242696017</v>
+        <v>26.78922426960157</v>
       </c>
       <c r="C17">
-        <v>35.08141771327382</v>
+        <v>35.08141771327351</v>
       </c>
       <c r="D17">
-        <v>12.12462436823319</v>
+        <v>12.12462436823316</v>
       </c>
       <c r="E17">
-        <v>24.29768580969771</v>
+        <v>24.29768580969767</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.98576254528989</v>
+        <v>78.98576254528888</v>
       </c>
       <c r="I17">
-        <v>13.23953416606298</v>
+        <v>13.2395341660629</v>
       </c>
       <c r="J17">
-        <v>28.59119307573021</v>
+        <v>28.59119307573004</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31525327192736</v>
+        <v>26.31525327192729</v>
       </c>
       <c r="C18">
-        <v>34.51094428188036</v>
+        <v>34.51094428188025</v>
       </c>
       <c r="D18">
-        <v>11.9262642887453</v>
+        <v>11.92626428874526</v>
       </c>
       <c r="E18">
-        <v>23.89100306370491</v>
+        <v>23.89100306370494</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.85616629953097</v>
+        <v>77.85616629953076</v>
       </c>
       <c r="I18">
-        <v>13.02615353328731</v>
+        <v>13.02615353328732</v>
       </c>
       <c r="J18">
-        <v>28.105863966809</v>
+        <v>28.10586396680895</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15526914642275</v>
+        <v>26.15526914642265</v>
       </c>
       <c r="C19">
-        <v>34.31804799246571</v>
+        <v>34.31804799246573</v>
       </c>
       <c r="D19">
-        <v>11.85918315767283</v>
+        <v>11.85918315767275</v>
       </c>
       <c r="E19">
-        <v>23.75358240953132</v>
+        <v>23.75358240953133</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.47413047799714</v>
+        <v>77.47413047799718</v>
       </c>
       <c r="I19">
-        <v>12.9540852592917</v>
+        <v>12.95408525929173</v>
       </c>
       <c r="J19">
-        <v>27.94189281326385</v>
+        <v>27.9418928132638</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87720653919937</v>
+        <v>26.87720653919947</v>
       </c>
       <c r="C20">
-        <v>35.18714745908996</v>
+        <v>35.18714745909011</v>
       </c>
       <c r="D20">
-        <v>12.16138359384421</v>
+        <v>12.16138359384415</v>
       </c>
       <c r="E20">
-        <v>24.37310531959937</v>
+        <v>24.37310531959929</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.19507210897255</v>
+        <v>79.19507210897291</v>
       </c>
       <c r="I20">
-        <v>13.27912254300155</v>
+        <v>13.27912254300153</v>
       </c>
       <c r="J20">
-        <v>28.68120909185684</v>
+        <v>28.6812090918569</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.35508230633241</v>
+        <v>29.35508230633245</v>
       </c>
       <c r="C21">
-        <v>38.14301431807151</v>
+        <v>38.14301431807159</v>
       </c>
       <c r="D21">
-        <v>13.18857565266835</v>
+        <v>13.18857565266831</v>
       </c>
       <c r="E21">
-        <v>26.48815250624654</v>
+        <v>26.4881525062465</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85.03730450945498</v>
+        <v>85.03730450945534</v>
       </c>
       <c r="I21">
-        <v>14.39155014101249</v>
+        <v>14.39155014101246</v>
       </c>
       <c r="J21">
-        <v>31.20678541069308</v>
+        <v>31.2067854106931</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.04043817164668</v>
+        <v>31.0404381716468</v>
       </c>
       <c r="C22">
-        <v>40.12870263666791</v>
+        <v>40.12870263666816</v>
       </c>
       <c r="D22">
         <v>13.8781657158963</v>
       </c>
       <c r="E22">
-        <v>27.91722751031157</v>
+        <v>27.91722751031154</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.94649129042112</v>
+        <v>88.94649129042139</v>
       </c>
       <c r="I22">
-        <v>15.14575464628712</v>
+        <v>15.14575464628709</v>
       </c>
       <c r="J22">
-        <v>32.91403974842729</v>
+        <v>32.91403974842743</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.13276325311075</v>
+        <v>30.1327632531109</v>
       </c>
       <c r="C23">
-        <v>39.06182064376755</v>
+        <v>39.06182064376774</v>
       </c>
       <c r="D23">
-        <v>13.50770033320643</v>
+        <v>13.50770033320638</v>
       </c>
       <c r="E23">
-        <v>27.14849399535137</v>
+        <v>27.14849399535143</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.84809842499025</v>
+        <v>86.84809842499088</v>
       </c>
       <c r="I23">
-        <v>14.73977996801406</v>
+        <v>14.73977996801414</v>
       </c>
       <c r="J23">
-        <v>31.99563048377657</v>
+        <v>31.9956304837767</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83741971872623</v>
+        <v>26.83741971872634</v>
       </c>
       <c r="C24">
-        <v>35.13934144719534</v>
+        <v>35.1393414471956</v>
       </c>
       <c r="D24">
-        <v>12.14476296283717</v>
+        <v>12.14476296283733</v>
       </c>
       <c r="E24">
-        <v>24.33900234229698</v>
+        <v>24.33900234229688</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.1004341615393</v>
+        <v>79.10043416153975</v>
       </c>
       <c r="I24">
-        <v>13.26122092859048</v>
+        <v>13.26122092859038</v>
       </c>
       <c r="J24">
-        <v>28.64050547590414</v>
+        <v>28.64050547590425</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41216636597582</v>
+        <v>23.41216636597567</v>
       </c>
       <c r="C25">
-        <v>30.98479022519535</v>
+        <v>30.98479022519518</v>
       </c>
       <c r="D25">
-        <v>10.6991993206406</v>
+        <v>10.69919932064045</v>
       </c>
       <c r="E25">
-        <v>21.38532499087284</v>
+        <v>21.38532499087269</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.87144279702788</v>
+        <v>70.8714427970268</v>
       </c>
       <c r="I25">
-        <v>11.71474599061351</v>
+        <v>11.71474599061347</v>
       </c>
       <c r="J25">
-        <v>25.11834216056814</v>
+        <v>25.11834216056802</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89249379291219</v>
+        <v>20.89249379291207</v>
       </c>
       <c r="C2">
-        <v>27.88226673014963</v>
+        <v>27.8822667301499</v>
       </c>
       <c r="D2">
-        <v>9.617730074943118</v>
+        <v>9.617730074943088</v>
       </c>
       <c r="E2">
         <v>19.18904348228519</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.73985813646044</v>
+        <v>64.73985813646024</v>
       </c>
       <c r="I2">
-        <v>10.5698063564719</v>
+        <v>10.56980635647193</v>
       </c>
       <c r="J2">
-        <v>22.50438271799129</v>
+        <v>22.50438271799132</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.15223668280723</v>
+        <v>19.1522366828073</v>
       </c>
       <c r="C3">
-        <v>25.71854766552685</v>
+        <v>25.71854766552695</v>
       </c>
       <c r="D3">
-        <v>8.961352218872722</v>
+        <v>8.961352218872721</v>
       </c>
       <c r="E3">
-        <v>17.659712410327</v>
+        <v>17.65971241032701</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.48495560002605</v>
+        <v>60.48495560002649</v>
       </c>
       <c r="I3">
-        <v>9.775091173211232</v>
+        <v>9.775091173211241</v>
       </c>
       <c r="J3">
-        <v>20.68724870139005</v>
+        <v>20.68724870139009</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0596131512407</v>
+        <v>18.05961315124074</v>
       </c>
       <c r="C4">
-        <v>24.35204153941425</v>
+        <v>24.35204153941418</v>
       </c>
       <c r="D4">
-        <v>8.553677393908965</v>
+        <v>8.553677393908945</v>
       </c>
       <c r="E4">
-        <v>16.69401810403491</v>
+        <v>16.69401810403502</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.81194271720464</v>
+        <v>57.81194271720498</v>
       </c>
       <c r="I4">
-        <v>9.274399164506729</v>
+        <v>9.274399164506777</v>
       </c>
       <c r="J4">
-        <v>19.54124184840209</v>
+        <v>19.5412418484021</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60735123067909</v>
+        <v>17.60735123067896</v>
       </c>
       <c r="C5">
-        <v>23.78471980917811</v>
+        <v>23.78471980917794</v>
       </c>
       <c r="D5">
-        <v>8.386191372646083</v>
+        <v>8.386191372646062</v>
       </c>
       <c r="E5">
-        <v>16.29299594327532</v>
+        <v>16.29299594327528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.70628348615382</v>
+        <v>56.70628348615392</v>
       </c>
       <c r="I5">
-        <v>9.066748530530832</v>
+        <v>9.06674853053083</v>
       </c>
       <c r="J5">
-        <v>19.06568500536406</v>
+        <v>19.06568500536394</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.5318058147647</v>
+        <v>17.53180581476471</v>
       </c>
       <c r="C6">
-        <v>23.6898618113501</v>
+        <v>23.68986181135028</v>
       </c>
       <c r="D6">
-        <v>8.358295406459426</v>
+        <v>8.358295406459341</v>
       </c>
       <c r="E6">
-        <v>16.2259334721901</v>
+        <v>16.22593347219001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.52167361598597</v>
+        <v>56.52167361598608</v>
       </c>
       <c r="I6">
-        <v>9.032039377179592</v>
+        <v>9.032039377179599</v>
       </c>
       <c r="J6">
-        <v>18.98617848285738</v>
+        <v>18.98617848285746</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05354329119476</v>
+        <v>18.05354329119495</v>
       </c>
       <c r="C7">
-        <v>24.34443385185237</v>
+        <v>24.34443385185252</v>
       </c>
       <c r="D7">
-        <v>8.551424261883479</v>
+        <v>8.551424261883463</v>
       </c>
       <c r="E7">
-        <v>16.68864106185739</v>
+        <v>16.6886410618574</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.79709900065831</v>
+        <v>57.79709900065868</v>
       </c>
       <c r="I7">
-        <v>9.271613840114069</v>
+        <v>9.271613840114078</v>
       </c>
       <c r="J7">
-        <v>19.5348640584758</v>
+        <v>19.534864058476</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29682211613987</v>
+        <v>20.29682211613991</v>
       </c>
       <c r="C8">
-        <v>27.14348411720843</v>
+        <v>27.14348411720877</v>
       </c>
       <c r="D8">
-        <v>9.392185727257313</v>
+        <v>9.392185727257196</v>
       </c>
       <c r="E8">
-        <v>18.66674847217019</v>
+        <v>18.66674847217021</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.2844755376841</v>
+        <v>63.28447553768446</v>
       </c>
       <c r="I8">
-        <v>10.29815674465076</v>
+        <v>10.29815674465073</v>
       </c>
       <c r="J8">
-        <v>21.88350020702201</v>
+        <v>21.88350020702211</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.55996696391327</v>
+        <v>24.55996696391338</v>
       </c>
       <c r="C9">
-        <v>32.38537756365592</v>
+        <v>32.38537756365614</v>
       </c>
       <c r="D9">
-        <v>11.18681069123148</v>
+        <v>11.18681069123165</v>
       </c>
       <c r="E9">
-        <v>22.37908360687412</v>
+        <v>22.37908360687421</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.64539054708197</v>
+        <v>73.64539054708229</v>
       </c>
       <c r="I9">
-        <v>12.234187201829</v>
+        <v>12.23418720182896</v>
       </c>
       <c r="J9">
-        <v>26.30259189726728</v>
+        <v>26.30259189726737</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.71473702862137</v>
+        <v>27.71473702862143</v>
       </c>
       <c r="C10">
-        <v>36.19099014094805</v>
+        <v>36.19099014094818</v>
       </c>
       <c r="D10">
-        <v>12.51032891576448</v>
+        <v>12.51032891576471</v>
       </c>
       <c r="E10">
-        <v>25.08992962116765</v>
+        <v>25.08992962116779</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.18142206593505</v>
+        <v>81.18142206593572</v>
       </c>
       <c r="I10">
-        <v>13.65565689769286</v>
+        <v>13.65565689769287</v>
       </c>
       <c r="J10">
-        <v>29.53693066187228</v>
+        <v>29.53693066187232</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.19133309242726</v>
+        <v>29.1913330924274</v>
       </c>
       <c r="C11">
-        <v>37.94900030231928</v>
+        <v>37.94900030231964</v>
       </c>
       <c r="D11">
-        <v>13.12118010774212</v>
+        <v>13.1211801077423</v>
       </c>
       <c r="E11">
-        <v>26.34890500229143</v>
+        <v>26.34890500229154</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.65455932220733</v>
+        <v>84.65455932220812</v>
       </c>
       <c r="I11">
-        <v>14.31817579053638</v>
+        <v>14.31817579053633</v>
       </c>
       <c r="J11">
-        <v>31.04045392603307</v>
+        <v>31.04045392603332</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.76113183768231</v>
+        <v>29.76113183768237</v>
       </c>
       <c r="C12">
-        <v>38.62328895214019</v>
+        <v>38.62328895214034</v>
       </c>
       <c r="D12">
-        <v>13.35539637831189</v>
+        <v>13.35539637831183</v>
       </c>
       <c r="E12">
-        <v>26.83313532566033</v>
+        <v>26.83313532566032</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.98422135515771</v>
+        <v>85.98422135515804</v>
       </c>
       <c r="I12">
-        <v>14.57341944929844</v>
+        <v>14.57341944929852</v>
       </c>
       <c r="J12">
-        <v>31.61889064964763</v>
+        <v>31.61889064964769</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.63784549150253</v>
+        <v>29.63784549150249</v>
       </c>
       <c r="C13">
-        <v>38.47759036738741</v>
+        <v>38.47759036738746</v>
       </c>
       <c r="D13">
-        <v>13.30479093987649</v>
+        <v>13.30479093987654</v>
       </c>
       <c r="E13">
-        <v>26.72843669960163</v>
+        <v>26.7284366996017</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.69704609141216</v>
+        <v>85.69704609141189</v>
       </c>
       <c r="I13">
         <v>14.51821102553576</v>
       </c>
       <c r="J13">
-        <v>31.49381800430901</v>
+        <v>31.49381800430905</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.23796345868815</v>
+        <v>29.23796345868857</v>
       </c>
       <c r="C14">
-        <v>38.00426844167846</v>
+        <v>38.00426844167898</v>
       </c>
       <c r="D14">
-        <v>13.14037920473327</v>
+        <v>13.14037920473343</v>
       </c>
       <c r="E14">
-        <v>26.3885654496785</v>
+        <v>26.38856544967875</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.76360332443583</v>
+        <v>84.76360332443721</v>
       </c>
       <c r="I14">
-        <v>14.33907224443493</v>
+        <v>14.33907224443505</v>
       </c>
       <c r="J14">
-        <v>31.08782784341235</v>
+        <v>31.08782784341274</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99458286861904</v>
+        <v>28.99458286861893</v>
       </c>
       <c r="C15">
-        <v>37.71563486339034</v>
+        <v>37.71563486339014</v>
       </c>
       <c r="D15">
-        <v>13.04011031843023</v>
+        <v>13.04011031843027</v>
       </c>
       <c r="E15">
-        <v>26.18149856219265</v>
+        <v>26.18149856219257</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.19402160972353</v>
+        <v>84.19402160972338</v>
       </c>
       <c r="I15">
-        <v>14.22998960965199</v>
+        <v>14.22998960965196</v>
       </c>
       <c r="J15">
-        <v>30.84049443433545</v>
+        <v>30.84049443433535</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.61943078325536</v>
+        <v>27.61943078325528</v>
       </c>
       <c r="C16">
-        <v>36.07700012772007</v>
+        <v>36.07700012771996</v>
       </c>
       <c r="D16">
-        <v>12.47071039669752</v>
+        <v>12.4707103966974</v>
       </c>
       <c r="E16">
-        <v>25.00846024048538</v>
+        <v>25.00846024048542</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.9559596979709</v>
+        <v>80.955959697971</v>
       </c>
       <c r="I16">
-        <v>13.61283801251665</v>
+        <v>13.61283801251678</v>
       </c>
       <c r="J16">
-        <v>29.43966097063925</v>
+        <v>29.43966097063922</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.78922426960157</v>
+        <v>26.7892242696017</v>
       </c>
       <c r="C17">
-        <v>35.08141771327351</v>
+        <v>35.08141771327382</v>
       </c>
       <c r="D17">
-        <v>12.12462436823316</v>
+        <v>12.12462436823319</v>
       </c>
       <c r="E17">
-        <v>24.29768580969767</v>
+        <v>24.29768580969771</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.98576254528888</v>
+        <v>78.98576254528989</v>
       </c>
       <c r="I17">
-        <v>13.2395341660629</v>
+        <v>13.23953416606298</v>
       </c>
       <c r="J17">
-        <v>28.59119307573004</v>
+        <v>28.59119307573021</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31525327192729</v>
+        <v>26.31525327192736</v>
       </c>
       <c r="C18">
-        <v>34.51094428188025</v>
+        <v>34.51094428188036</v>
       </c>
       <c r="D18">
-        <v>11.92626428874526</v>
+        <v>11.9262642887453</v>
       </c>
       <c r="E18">
-        <v>23.89100306370494</v>
+        <v>23.89100306370491</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.85616629953076</v>
+        <v>77.85616629953097</v>
       </c>
       <c r="I18">
-        <v>13.02615353328732</v>
+        <v>13.02615353328731</v>
       </c>
       <c r="J18">
-        <v>28.10586396680895</v>
+        <v>28.105863966809</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15526914642265</v>
+        <v>26.15526914642275</v>
       </c>
       <c r="C19">
-        <v>34.31804799246573</v>
+        <v>34.31804799246571</v>
       </c>
       <c r="D19">
-        <v>11.85918315767275</v>
+        <v>11.85918315767283</v>
       </c>
       <c r="E19">
-        <v>23.75358240953133</v>
+        <v>23.75358240953132</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.47413047799718</v>
+        <v>77.47413047799714</v>
       </c>
       <c r="I19">
-        <v>12.95408525929173</v>
+        <v>12.9540852592917</v>
       </c>
       <c r="J19">
-        <v>27.9418928132638</v>
+        <v>27.94189281326385</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87720653919947</v>
+        <v>26.87720653919937</v>
       </c>
       <c r="C20">
-        <v>35.18714745909011</v>
+        <v>35.18714745908996</v>
       </c>
       <c r="D20">
-        <v>12.16138359384415</v>
+        <v>12.16138359384421</v>
       </c>
       <c r="E20">
-        <v>24.37310531959929</v>
+        <v>24.37310531959937</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.19507210897291</v>
+        <v>79.19507210897255</v>
       </c>
       <c r="I20">
-        <v>13.27912254300153</v>
+        <v>13.27912254300155</v>
       </c>
       <c r="J20">
-        <v>28.6812090918569</v>
+        <v>28.68120909185684</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.35508230633245</v>
+        <v>29.35508230633241</v>
       </c>
       <c r="C21">
-        <v>38.14301431807159</v>
+        <v>38.14301431807151</v>
       </c>
       <c r="D21">
-        <v>13.18857565266831</v>
+        <v>13.18857565266835</v>
       </c>
       <c r="E21">
-        <v>26.4881525062465</v>
+        <v>26.48815250624654</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85.03730450945534</v>
+        <v>85.03730450945498</v>
       </c>
       <c r="I21">
-        <v>14.39155014101246</v>
+        <v>14.39155014101249</v>
       </c>
       <c r="J21">
-        <v>31.2067854106931</v>
+        <v>31.20678541069308</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.0404381716468</v>
+        <v>31.04043817164668</v>
       </c>
       <c r="C22">
-        <v>40.12870263666816</v>
+        <v>40.12870263666791</v>
       </c>
       <c r="D22">
         <v>13.8781657158963</v>
       </c>
       <c r="E22">
-        <v>27.91722751031154</v>
+        <v>27.91722751031157</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.94649129042139</v>
+        <v>88.94649129042112</v>
       </c>
       <c r="I22">
-        <v>15.14575464628709</v>
+        <v>15.14575464628712</v>
       </c>
       <c r="J22">
-        <v>32.91403974842743</v>
+        <v>32.91403974842729</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.1327632531109</v>
+        <v>30.13276325311075</v>
       </c>
       <c r="C23">
-        <v>39.06182064376774</v>
+        <v>39.06182064376755</v>
       </c>
       <c r="D23">
-        <v>13.50770033320638</v>
+        <v>13.50770033320643</v>
       </c>
       <c r="E23">
-        <v>27.14849399535143</v>
+        <v>27.14849399535137</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.84809842499088</v>
+        <v>86.84809842499025</v>
       </c>
       <c r="I23">
-        <v>14.73977996801414</v>
+        <v>14.73977996801406</v>
       </c>
       <c r="J23">
-        <v>31.9956304837767</v>
+        <v>31.99563048377657</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83741971872634</v>
+        <v>26.83741971872623</v>
       </c>
       <c r="C24">
-        <v>35.1393414471956</v>
+        <v>35.13934144719534</v>
       </c>
       <c r="D24">
-        <v>12.14476296283733</v>
+        <v>12.14476296283717</v>
       </c>
       <c r="E24">
-        <v>24.33900234229688</v>
+        <v>24.33900234229698</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.10043416153975</v>
+        <v>79.1004341615393</v>
       </c>
       <c r="I24">
-        <v>13.26122092859038</v>
+        <v>13.26122092859048</v>
       </c>
       <c r="J24">
-        <v>28.64050547590425</v>
+        <v>28.64050547590414</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41216636597567</v>
+        <v>23.41216636597582</v>
       </c>
       <c r="C25">
-        <v>30.98479022519518</v>
+        <v>30.98479022519535</v>
       </c>
       <c r="D25">
-        <v>10.69919932064045</v>
+        <v>10.6991993206406</v>
       </c>
       <c r="E25">
-        <v>21.38532499087269</v>
+        <v>21.38532499087284</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.8714427970268</v>
+        <v>70.87144279702788</v>
       </c>
       <c r="I25">
-        <v>11.71474599061347</v>
+        <v>11.71474599061351</v>
       </c>
       <c r="J25">
-        <v>25.11834216056802</v>
+        <v>25.11834216056814</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89249379291207</v>
+        <v>20.71553056199819</v>
       </c>
       <c r="C2">
-        <v>27.8822667301499</v>
+        <v>27.75459982530434</v>
       </c>
       <c r="D2">
-        <v>9.617730074943088</v>
+        <v>9.592114940522396</v>
       </c>
       <c r="E2">
-        <v>19.18904348228519</v>
+        <v>19.12302026096621</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.041079035701036</v>
       </c>
       <c r="H2">
-        <v>64.73985813646024</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.56980635647193</v>
+        <v>64.77323480366383</v>
       </c>
       <c r="J2">
-        <v>22.50438271799132</v>
+        <v>10.53681640451173</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.3298484948468</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.1522366828073</v>
+        <v>18.99084238618821</v>
       </c>
       <c r="C3">
-        <v>25.71854766552695</v>
+        <v>25.6117343872926</v>
       </c>
       <c r="D3">
-        <v>8.961352218872721</v>
+        <v>8.939794168910746</v>
       </c>
       <c r="E3">
-        <v>17.65971241032701</v>
+        <v>17.60085644723477</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.062774132452511</v>
       </c>
       <c r="H3">
-        <v>60.48495560002649</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.775091173211241</v>
+        <v>60.55183158036912</v>
       </c>
       <c r="J3">
-        <v>20.68724870139009</v>
+        <v>9.745994406812471</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.52691148356392</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05961315124074</v>
+        <v>17.90829005769824</v>
       </c>
       <c r="C4">
-        <v>24.35204153941418</v>
+        <v>24.25889067631048</v>
       </c>
       <c r="D4">
-        <v>8.553677393908945</v>
+        <v>8.534532583697709</v>
       </c>
       <c r="E4">
-        <v>16.69401810403502</v>
+        <v>16.63940023433102</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.076032855108583</v>
       </c>
       <c r="H4">
-        <v>57.81194271720498</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.274399164506777</v>
+        <v>57.90038229920529</v>
       </c>
       <c r="J4">
-        <v>19.5412418484021</v>
+        <v>9.247604591981617</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.38995497477215</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60735123067896</v>
+        <v>17.4602967777029</v>
       </c>
       <c r="C5">
-        <v>23.78471980917794</v>
+        <v>23.71448779609518</v>
       </c>
       <c r="D5">
-        <v>8.386191372646062</v>
+        <v>8.368036054869396</v>
       </c>
       <c r="E5">
-        <v>16.29299594327528</v>
+        <v>16.24008035508496</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.081438460028994</v>
       </c>
       <c r="H5">
-        <v>56.70628348615392</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.06674853053083</v>
+        <v>56.80381346512008</v>
       </c>
       <c r="J5">
-        <v>19.06568500536394</v>
+        <v>9.040878931248102</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.91820038737378</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53180581476471</v>
+        <v>17.38547114205479</v>
       </c>
       <c r="C6">
-        <v>23.68986181135028</v>
+        <v>23.62419030592382</v>
       </c>
       <c r="D6">
-        <v>8.358295406459341</v>
+        <v>8.340304941192851</v>
       </c>
       <c r="E6">
-        <v>16.22593347219001</v>
+        <v>16.17329945141551</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.08233668662709</v>
       </c>
       <c r="H6">
-        <v>56.52167361598608</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.032039377179599</v>
+        <v>56.62073276513448</v>
       </c>
       <c r="J6">
-        <v>18.98617848285746</v>
+        <v>9.006322796803758</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.83933297950452</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05354329119495</v>
+        <v>17.90227705296677</v>
       </c>
       <c r="C7">
-        <v>24.34443385185252</v>
+        <v>24.2513604691373</v>
       </c>
       <c r="D7">
-        <v>8.551424261883463</v>
+        <v>8.532292763327245</v>
       </c>
       <c r="E7">
-        <v>16.6886410618574</v>
+        <v>16.63404623145919</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.076105724749819</v>
       </c>
       <c r="H7">
-        <v>57.79709900065868</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.271613840114078</v>
+        <v>57.8856598871678</v>
       </c>
       <c r="J7">
-        <v>19.534864058476</v>
+        <v>9.244831785120555</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.38362796228344</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29682211613991</v>
+        <v>20.12514290630451</v>
       </c>
       <c r="C8">
-        <v>27.14348411720877</v>
+        <v>27.02285625713716</v>
       </c>
       <c r="D8">
-        <v>9.392185727257196</v>
+        <v>9.368053478380249</v>
       </c>
       <c r="E8">
-        <v>18.66674847217021</v>
+        <v>18.60324130688973</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.048584404431616</v>
       </c>
       <c r="H8">
-        <v>63.28447553768446</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.29815674465073</v>
+        <v>63.32923063807049</v>
       </c>
       <c r="J8">
-        <v>21.88350020702211</v>
+        <v>10.26653362858872</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.71381097960355</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.55996696391338</v>
+        <v>24.35052229181715</v>
       </c>
       <c r="C9">
-        <v>32.38537756365614</v>
+        <v>32.21538875701101</v>
       </c>
       <c r="D9">
-        <v>11.18681069123165</v>
+        <v>11.14647040702549</v>
       </c>
       <c r="E9">
-        <v>22.37908360687421</v>
+        <v>22.2957865976832</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.993085116291404</v>
       </c>
       <c r="H9">
-        <v>73.64539054708229</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.23418720182896</v>
+        <v>73.60918727756581</v>
       </c>
       <c r="J9">
-        <v>26.30259189726737</v>
+        <v>12.19180097081907</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.0977711412595</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.71473702862143</v>
+        <v>27.47564444712446</v>
       </c>
       <c r="C10">
-        <v>36.19099014094818</v>
+        <v>35.98384371533267</v>
       </c>
       <c r="D10">
-        <v>12.51032891576471</v>
+        <v>12.46164221353849</v>
       </c>
       <c r="E10">
-        <v>25.08992962116779</v>
+        <v>24.98845114786998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.949427276570517</v>
       </c>
       <c r="H10">
-        <v>81.18142206593572</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>13.65565689769287</v>
+        <v>81.083034399445</v>
       </c>
       <c r="J10">
-        <v>29.53693066187232</v>
+        <v>13.60334537479006</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>29.30392548966483</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.1913330924274</v>
+        <v>28.93712856387492</v>
       </c>
       <c r="C11">
-        <v>37.94900030231964</v>
+        <v>37.72343208341435</v>
       </c>
       <c r="D11">
-        <v>13.1211801077423</v>
+        <v>13.06796931335802</v>
       </c>
       <c r="E11">
-        <v>26.34890500229154</v>
+        <v>26.237432098029</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.928273722100273</v>
       </c>
       <c r="H11">
-        <v>84.65455932220812</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.31817579053633</v>
+        <v>84.52513371309904</v>
       </c>
       <c r="J11">
-        <v>31.04045392603332</v>
+        <v>14.26039072999507</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>30.79296674922596</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.76113183768237</v>
+        <v>29.50079533097995</v>
       </c>
       <c r="C12">
-        <v>38.62328895214034</v>
+        <v>38.39033842227562</v>
       </c>
       <c r="D12">
-        <v>13.35539637831183</v>
+        <v>13.30030781757674</v>
       </c>
       <c r="E12">
-        <v>26.83313532566032</v>
+        <v>26.71748823899765</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.919992475401074</v>
       </c>
       <c r="H12">
-        <v>85.98422135515804</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.57341944929852</v>
+        <v>85.84233467707912</v>
       </c>
       <c r="J12">
-        <v>31.61889064964769</v>
+        <v>14.51334469414103</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>31.36551296563361</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.63784549150249</v>
+        <v>29.37885176680917</v>
       </c>
       <c r="C13">
-        <v>38.47759036738746</v>
+        <v>38.24625200787873</v>
       </c>
       <c r="D13">
-        <v>13.30479093987654</v>
+        <v>13.25011547047375</v>
       </c>
       <c r="E13">
-        <v>26.7284366996017</v>
+        <v>26.61370914374454</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.921789780693584</v>
       </c>
       <c r="H13">
-        <v>85.69704609141189</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.51821102553576</v>
+        <v>85.55788156678518</v>
       </c>
       <c r="J13">
-        <v>31.49381800430905</v>
+        <v>14.4586408500801</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>31.24173079478246</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.23796345868857</v>
+        <v>28.98326403026094</v>
       </c>
       <c r="C14">
-        <v>38.00426844167898</v>
+        <v>37.77810248173649</v>
       </c>
       <c r="D14">
-        <v>13.14037920473343</v>
+        <v>13.08701769874804</v>
       </c>
       <c r="E14">
-        <v>26.38856544967875</v>
+        <v>26.27675806329514</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.927598461461804</v>
       </c>
       <c r="H14">
-        <v>84.76360332443721</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.33907224443505</v>
+        <v>84.63316915188851</v>
       </c>
       <c r="J14">
-        <v>31.08782784341274</v>
+        <v>14.28110378673502</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>30.83986551371148</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99458286861893</v>
+        <v>28.74245357051355</v>
       </c>
       <c r="C15">
-        <v>37.71563486339014</v>
+        <v>37.49257685868916</v>
       </c>
       <c r="D15">
-        <v>13.04011031843027</v>
+        <v>12.98752982898817</v>
       </c>
       <c r="E15">
-        <v>26.18149856219257</v>
+        <v>26.07142348242554</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.931118054661403</v>
       </c>
       <c r="H15">
-        <v>84.19402160972338</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.22998960965196</v>
+        <v>84.06883060740917</v>
       </c>
       <c r="J15">
-        <v>30.84049443433535</v>
+        <v>14.17297082930612</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>30.59499914831844</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.61943078325528</v>
+        <v>27.38128017168416</v>
       </c>
       <c r="C16">
-        <v>36.07700012771996</v>
+        <v>35.87101315572341</v>
       </c>
       <c r="D16">
-        <v>12.4707103966974</v>
+        <v>12.42230033178257</v>
       </c>
       <c r="E16">
-        <v>25.00846024048542</v>
+        <v>24.90758990318356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.950777176034969</v>
       </c>
       <c r="H16">
-        <v>80.955959697971</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>13.61283801251678</v>
+        <v>80.85952206048601</v>
       </c>
       <c r="J16">
-        <v>29.43966097063922</v>
+        <v>13.56085913606181</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>29.20755649132609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.7892242696017</v>
+        <v>26.55913479847317</v>
       </c>
       <c r="C17">
-        <v>35.08141771327382</v>
+        <v>34.88540855095007</v>
       </c>
       <c r="D17">
-        <v>12.12462436823319</v>
+        <v>12.07855331211777</v>
       </c>
       <c r="E17">
-        <v>24.29768580969771</v>
+        <v>24.20194282453236</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.962455529333596</v>
       </c>
       <c r="H17">
-        <v>78.98576254528989</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>13.23953416606298</v>
+        <v>78.90608476835963</v>
       </c>
       <c r="J17">
-        <v>28.59119307573021</v>
+        <v>13.19035806680108</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>28.36678466538693</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31525327192736</v>
+        <v>26.08966159498684</v>
       </c>
       <c r="C18">
-        <v>34.51094428188036</v>
+        <v>34.32054622396498</v>
       </c>
       <c r="D18">
-        <v>11.9262642887453</v>
+        <v>11.8814750204026</v>
       </c>
       <c r="E18">
-        <v>23.89100306370491</v>
+        <v>23.79805856609918</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.969057416010103</v>
       </c>
       <c r="H18">
-        <v>77.85616629953097</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.02615353328731</v>
+        <v>77.78589467791647</v>
       </c>
       <c r="J18">
-        <v>28.105863966809</v>
+        <v>12.97850578812307</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>27.88573939021567</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15526914642275</v>
+        <v>25.93118046374252</v>
       </c>
       <c r="C19">
-        <v>34.31804799246571</v>
+        <v>34.12953206350988</v>
       </c>
       <c r="D19">
-        <v>11.85918315767283</v>
+        <v>11.81481829607232</v>
       </c>
       <c r="E19">
-        <v>23.75358240953132</v>
+        <v>23.66156268842649</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.971274992814484</v>
       </c>
       <c r="H19">
-        <v>77.47413047799714</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.9540852592917</v>
+        <v>77.40701054188544</v>
       </c>
       <c r="J19">
-        <v>27.94189281326385</v>
+        <v>12.90694235372131</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>27.72319791014438</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87720653919937</v>
+        <v>26.64627428998691</v>
       </c>
       <c r="C20">
-        <v>35.18714745908996</v>
+        <v>34.99009043553951</v>
       </c>
       <c r="D20">
-        <v>12.16138359384421</v>
+        <v>12.1150704550174</v>
       </c>
       <c r="E20">
-        <v>24.37310531959937</v>
+        <v>24.27683288930294</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.961224781506146</v>
       </c>
       <c r="H20">
-        <v>79.19507210897255</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13.27912254300155</v>
+        <v>79.11363615510938</v>
       </c>
       <c r="J20">
-        <v>28.68120909185684</v>
+        <v>13.22965718478779</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>28.4559971303394</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.35508230633241</v>
+        <v>29.09913456638897</v>
       </c>
       <c r="C21">
-        <v>38.14301431807151</v>
+        <v>37.91534216274346</v>
       </c>
       <c r="D21">
-        <v>13.18857565266835</v>
+        <v>13.13483333157489</v>
       </c>
       <c r="E21">
-        <v>26.48815250624654</v>
+        <v>26.3754995312222</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.925900516942094</v>
       </c>
       <c r="H21">
-        <v>85.03730450945498</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.39155014101249</v>
+        <v>84.90432861430557</v>
       </c>
       <c r="J21">
-        <v>31.20678541069308</v>
+        <v>14.33311798408828</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>30.95762436779574</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.04043817164668</v>
+        <v>30.76558103925625</v>
       </c>
       <c r="C22">
-        <v>40.12870263666791</v>
+        <v>39.87846966128842</v>
       </c>
       <c r="D22">
-        <v>13.8781657158963</v>
+        <v>13.81854813107692</v>
       </c>
       <c r="E22">
-        <v>27.91722751031157</v>
+        <v>27.79145476741644</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.901165606279366</v>
       </c>
       <c r="H22">
-        <v>88.94649129042112</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.14575464628712</v>
+        <v>88.77540071849806</v>
       </c>
       <c r="J22">
-        <v>32.91403974842729</v>
+        <v>15.0801169001185</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>32.6466906720147</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.13276325311075</v>
+        <v>29.86832231592136</v>
       </c>
       <c r="C23">
-        <v>39.06182064376755</v>
+        <v>38.82395727021645</v>
       </c>
       <c r="D23">
-        <v>13.50770033320643</v>
+        <v>13.45134279343897</v>
       </c>
       <c r="E23">
-        <v>27.14849399535137</v>
+        <v>27.03001788445916</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.914556462839774</v>
       </c>
       <c r="H23">
-        <v>86.84809842499025</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.73977996801406</v>
+        <v>86.69791381178639</v>
       </c>
       <c r="J23">
-        <v>31.99563048377657</v>
+        <v>14.67815218422299</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>31.73830647722067</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83741971872623</v>
+        <v>26.60686890354064</v>
       </c>
       <c r="C24">
-        <v>35.13934144719534</v>
+        <v>34.94275853941932</v>
       </c>
       <c r="D24">
-        <v>12.14476296283717</v>
+        <v>12.09855946169883</v>
       </c>
       <c r="E24">
-        <v>24.33900234229698</v>
+        <v>24.24296972986366</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.961781546070481</v>
       </c>
       <c r="H24">
-        <v>79.1004341615393</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>13.26122092859048</v>
+        <v>79.01979377301373</v>
       </c>
       <c r="J24">
-        <v>28.64050547590414</v>
+        <v>13.2118865976795</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>28.41565722716866</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41216636597582</v>
+        <v>23.21297733523431</v>
       </c>
       <c r="C25">
-        <v>30.98479022519535</v>
+        <v>30.82798263816745</v>
       </c>
       <c r="D25">
-        <v>10.6991993206406</v>
+        <v>10.66154766407459</v>
       </c>
       <c r="E25">
-        <v>21.38532499087284</v>
+        <v>21.30780562404002</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.008431449540032</v>
       </c>
       <c r="H25">
-        <v>70.87144279702788</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.71474599061351</v>
+        <v>70.85709129649445</v>
       </c>
       <c r="J25">
-        <v>25.11834216056814</v>
+        <v>11.67550564422598</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.92316663866426</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>25.38566227934428</v>
+      </c>
+      <c r="C2">
+        <v>20.28373408115308</v>
+      </c>
+      <c r="D2">
+        <v>7.290363494070277</v>
+      </c>
+      <c r="E2">
+        <v>30.15203743860304</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.040770961104449</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10.09541103063218</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15.02566219060432</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>23.70330080805511</v>
+      </c>
+      <c r="C3">
+        <v>18.95622849380064</v>
+      </c>
+      <c r="D3">
+        <v>6.77635256117251</v>
+      </c>
+      <c r="E3">
+        <v>27.92275113109071</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.048786882034813</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10.33189524251173</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>14.55598800199646</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>22.61246551453743</v>
+      </c>
+      <c r="C4">
+        <v>18.09708087594164</v>
+      </c>
+      <c r="D4">
+        <v>6.444185530762431</v>
+      </c>
+      <c r="E4">
+        <v>26.49360269682078</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.053816306217527</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10.50343147384425</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>14.2922995207514</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>22.15328909199108</v>
+      </c>
+      <c r="C5">
+        <v>17.73582144875807</v>
+      </c>
+      <c r="D5">
+        <v>6.304605105457228</v>
+      </c>
+      <c r="E5">
+        <v>25.89559470816355</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.055894757932779</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10.57930039830484</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>14.190956752155</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22.07615551354861</v>
+      </c>
+      <c r="C6">
+        <v>17.67515942194414</v>
+      </c>
+      <c r="D6">
+        <v>6.281171467406716</v>
+      </c>
+      <c r="E6">
+        <v>25.79534038345815</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.056241681602347</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10.59224087508087</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>14.17449463559048</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.60633235291193</v>
+      </c>
+      <c r="C7">
+        <v>18.09225403250331</v>
+      </c>
+      <c r="D7">
+        <v>6.442320256491358</v>
+      </c>
+      <c r="E7">
+        <v>26.48560154863396</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.053844217492584</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10.50443132716418</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>14.29090817677407</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>24.81752579082501</v>
+      </c>
+      <c r="C8">
+        <v>19.83510446140772</v>
+      </c>
+      <c r="D8">
+        <v>7.116536050071113</v>
+      </c>
+      <c r="E8">
+        <v>29.39562979036763</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.043513682509129</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10.17106970134483</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>14.85854312368559</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>28.70002708638303</v>
+      </c>
+      <c r="C9">
+        <v>22.90748541768524</v>
+      </c>
+      <c r="D9">
+        <v>8.309893905746552</v>
+      </c>
+      <c r="E9">
+        <v>34.6452873280093</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.024016669036977</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9.75919601176888</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.1708977896025</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>31.28461125411399</v>
+      </c>
+      <c r="C10">
+        <v>24.96139058269366</v>
+      </c>
+      <c r="D10">
+        <v>9.112092034973362</v>
+      </c>
+      <c r="E10">
+        <v>38.25822368628189</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.010011423492305</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>9.653754672955065</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>17.28480468760691</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>32.40445183206092</v>
+      </c>
+      <c r="C11">
+        <v>25.85354691764273</v>
+      </c>
+      <c r="D11">
+        <v>9.46180334316551</v>
+      </c>
+      <c r="E11">
+        <v>39.857891213107</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.003672078068229</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>9.66027058450608</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>18.04306412256182</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>32.82067508696873</v>
+      </c>
+      <c r="C12">
+        <v>26.18550668550187</v>
+      </c>
+      <c r="D12">
+        <v>9.592130553845729</v>
+      </c>
+      <c r="E12">
+        <v>40.45821963753412</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.001272498633917</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>9.671556987889703</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>18.33005594915015</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>32.73137899737107</v>
+      </c>
+      <c r="C13">
+        <v>26.11427153027669</v>
+      </c>
+      <c r="D13">
+        <v>9.56415421615233</v>
+      </c>
+      <c r="E13">
+        <v>40.32915426448696</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.001789308945882</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>9.668718541557546</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>18.26824962297014</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>32.43885057323946</v>
+      </c>
+      <c r="C14">
+        <v>25.88097415233434</v>
+      </c>
+      <c r="D14">
+        <v>9.472567017034557</v>
+      </c>
+      <c r="E14">
+        <v>39.90738392382052</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.003474665511583</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>9.66101679628845</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>18.06667661937052</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>32.25865438463205</v>
+      </c>
+      <c r="C15">
+        <v>25.73731287369056</v>
+      </c>
+      <c r="D15">
+        <v>9.41619634372614</v>
+      </c>
+      <c r="E15">
+        <v>39.64835850552989</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.004507010172802</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>9.657476713778287</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>17.943195599388</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>31.21031895514589</v>
+      </c>
+      <c r="C16">
+        <v>24.90225256548242</v>
+      </c>
+      <c r="D16">
+        <v>9.088938671876194</v>
+      </c>
+      <c r="E16">
+        <v>38.15287086730911</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.010426058698958</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>9.654509556215954</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>17.2352181139055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>30.55301858411006</v>
+      </c>
+      <c r="C17">
+        <v>24.37929119770663</v>
+      </c>
+      <c r="D17">
+        <v>8.88433933532453</v>
+      </c>
+      <c r="E17">
+        <v>37.22478473103721</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.014062934881041</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>9.667346060707684</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16.93508908207201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>30.16968183679602</v>
+      </c>
+      <c r="C18">
+        <v>24.0745154209691</v>
+      </c>
+      <c r="D18">
+        <v>8.765221651466936</v>
+      </c>
+      <c r="E18">
+        <v>36.68678474230273</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.016157994365887</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>9.679797901822365</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>16.76985431790631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>30.03897883202547</v>
+      </c>
+      <c r="C19">
+        <v>23.97063442275893</v>
+      </c>
+      <c r="D19">
+        <v>8.724641048310675</v>
+      </c>
+      <c r="E19">
+        <v>36.50388299364528</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.016868000330294</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>9.684854287334261</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>16.71436253445949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>30.62353387733246</v>
+      </c>
+      <c r="C20">
+        <v>24.43537221954669</v>
+      </c>
+      <c r="D20">
+        <v>8.906267465626726</v>
+      </c>
+      <c r="E20">
+        <v>37.32400872530818</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.013675473794833</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>9.665447840754224</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>16.96588661144197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>32.52498420127415</v>
+      </c>
+      <c r="C21">
+        <v>25.94965724329142</v>
+      </c>
+      <c r="D21">
+        <v>9.499524678724338</v>
+      </c>
+      <c r="E21">
+        <v>40.03140781712025</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.002979639362886</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>9.663031874765451</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>18.12588548417449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>33.72212891314716</v>
+      </c>
+      <c r="C22">
+        <v>26.90515916747556</v>
+      </c>
+      <c r="D22">
+        <v>9.875054137142952</v>
+      </c>
+      <c r="E22">
+        <v>41.76970503208947</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.995993052695493</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>9.713295028057644</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.96120090871809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>33.08728607622518</v>
+      </c>
+      <c r="C23">
+        <v>26.39824855320851</v>
+      </c>
+      <c r="D23">
+        <v>9.675712069313045</v>
+      </c>
+      <c r="E23">
+        <v>40.84446575623911</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.999722893517367</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>9.68140549831489</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>18.51535597334368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>30.59167089133663</v>
+      </c>
+      <c r="C24">
+        <v>24.41003083079216</v>
+      </c>
+      <c r="D24">
+        <v>8.896358407854326</v>
+      </c>
+      <c r="E24">
+        <v>37.27916342309449</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.013850631698056</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>9.666290303036561</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>16.95195500720351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27.69743918927827</v>
+      </c>
+      <c r="C25">
+        <v>22.11262695105336</v>
+      </c>
+      <c r="D25">
+        <v>8.000456331416258</v>
+      </c>
+      <c r="E25">
+        <v>33.27071273668716</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.029223612726033</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>9.839822240156131</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>15.79411487647297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38566227934428</v>
+        <v>15.37372175046311</v>
       </c>
       <c r="C2">
-        <v>20.28373408115308</v>
+        <v>11.451355774266</v>
       </c>
       <c r="D2">
-        <v>7.290363494070277</v>
+        <v>5.965179928147954</v>
       </c>
       <c r="E2">
-        <v>30.15203743860304</v>
+        <v>16.54913201810116</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040770961104449</v>
+        <v>3.601708615739476</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.09541103063218</v>
+        <v>17.370830946993</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.02566219060432</v>
+        <v>19.28612686431046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70330080805511</v>
+        <v>14.57208628456858</v>
       </c>
       <c r="C3">
-        <v>18.95622849380064</v>
+        <v>10.72204778027259</v>
       </c>
       <c r="D3">
-        <v>6.77635256117251</v>
+        <v>5.843154896066161</v>
       </c>
       <c r="E3">
-        <v>27.92275113109071</v>
+        <v>15.60490516367876</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.048786882034813</v>
+        <v>3.604515383009726</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.33189524251173</v>
+        <v>17.52909789762156</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.55598800199646</v>
+        <v>19.33277193092449</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.61246551453743</v>
+        <v>14.05711574745184</v>
       </c>
       <c r="C4">
-        <v>18.09708087594164</v>
+        <v>10.24651590419223</v>
       </c>
       <c r="D4">
-        <v>6.444185530762431</v>
+        <v>5.768801805894647</v>
       </c>
       <c r="E4">
-        <v>26.49360269682078</v>
+        <v>15.00029191135375</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.053816306217527</v>
+        <v>3.606326265246633</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.50343147384425</v>
+        <v>17.63276133484252</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.2922995207514</v>
+        <v>19.36991341533325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15328909199108</v>
+        <v>13.84174361239727</v>
       </c>
       <c r="C5">
-        <v>17.73582144875807</v>
+        <v>10.04575705902912</v>
       </c>
       <c r="D5">
-        <v>6.304605105457228</v>
+        <v>5.738692651106138</v>
       </c>
       <c r="E5">
-        <v>25.89559470816355</v>
+        <v>14.74792590966965</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.055894757932779</v>
+        <v>3.60708630347566</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.57930039830484</v>
+        <v>17.67662823464669</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.190956752155</v>
+        <v>19.38716845643157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07615551354861</v>
+        <v>13.80565478508186</v>
       </c>
       <c r="C6">
-        <v>17.67515942194414</v>
+        <v>10.01199992413073</v>
       </c>
       <c r="D6">
-        <v>6.281171467406716</v>
+        <v>5.733705921085858</v>
       </c>
       <c r="E6">
-        <v>25.79534038345815</v>
+        <v>14.70566837845336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.056241681602347</v>
+        <v>3.607213843787041</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.59224087508087</v>
+        <v>17.68401011073161</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.17449463559048</v>
+        <v>19.39016110448578</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.60633235291193</v>
+        <v>14.05423320259608</v>
       </c>
       <c r="C7">
-        <v>18.09225403250331</v>
+        <v>10.2438366439628</v>
       </c>
       <c r="D7">
-        <v>6.442320256491358</v>
+        <v>5.768394910447803</v>
       </c>
       <c r="E7">
-        <v>26.48560154863396</v>
+        <v>14.99691223866804</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.053844217492584</v>
+        <v>3.6063364258429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.50443132716418</v>
+        <v>17.63334637731836</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.29090817677407</v>
+        <v>19.37013756582716</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81752579082501</v>
+        <v>15.10215483671753</v>
       </c>
       <c r="C8">
-        <v>19.83510446140772</v>
+        <v>11.2056440255637</v>
       </c>
       <c r="D8">
-        <v>7.116536050071113</v>
+        <v>5.923015140349388</v>
       </c>
       <c r="E8">
-        <v>29.39562979036763</v>
+        <v>16.22886648137328</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.043513682509129</v>
+        <v>3.602658274965584</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.17106970134483</v>
+        <v>17.42405015354992</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.85854312368559</v>
+        <v>19.30043517717806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70002708638303</v>
+        <v>16.96920428669177</v>
       </c>
       <c r="C9">
-        <v>22.90748541768524</v>
+        <v>12.87199601542455</v>
       </c>
       <c r="D9">
-        <v>8.309893905746552</v>
+        <v>6.228734187518707</v>
       </c>
       <c r="E9">
-        <v>34.6452873280093</v>
+        <v>18.54299471116171</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.024016669036977</v>
+        <v>3.596136058385156</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.75919601176888</v>
+        <v>17.06546133971194</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.1708977896025</v>
+        <v>19.23194370882078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.28461125411399</v>
+        <v>18.21864032852567</v>
       </c>
       <c r="C10">
-        <v>24.96139058269366</v>
+        <v>13.96296223996974</v>
       </c>
       <c r="D10">
-        <v>9.112092034973362</v>
+        <v>6.452255952971892</v>
       </c>
       <c r="E10">
-        <v>38.25822368628189</v>
+        <v>20.19849613350473</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.010011423492305</v>
+        <v>3.591759914635575</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.653754672955065</v>
+        <v>16.83413765173825</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.28480468760691</v>
+        <v>19.22410350419671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.40445183206092</v>
+        <v>18.75933891070761</v>
       </c>
       <c r="C11">
-        <v>25.85354691764273</v>
+        <v>14.43051364001649</v>
       </c>
       <c r="D11">
-        <v>9.46180334316551</v>
+        <v>6.553183709969606</v>
       </c>
       <c r="E11">
-        <v>39.857891213107</v>
+        <v>20.90950687465967</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.003672078068229</v>
+        <v>3.589858232041752</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.66027058450608</v>
+        <v>16.73600162333423</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.04306412256182</v>
+        <v>19.22991964844399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.82067508696873</v>
+        <v>18.96003614463027</v>
       </c>
       <c r="C12">
-        <v>26.18550668550187</v>
+        <v>14.60344747943478</v>
       </c>
       <c r="D12">
-        <v>9.592130553845729</v>
+        <v>6.591253472331688</v>
       </c>
       <c r="E12">
-        <v>40.45821963753412</v>
+        <v>21.17273462188574</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.001272498633917</v>
+        <v>3.589150832337582</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.671556987889703</v>
+        <v>16.69987116074249</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.33005594915015</v>
+        <v>19.23348144102625</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.73137899737107</v>
+        <v>18.91699370217858</v>
       </c>
       <c r="C13">
-        <v>26.11427153027669</v>
+        <v>14.56638598059957</v>
       </c>
       <c r="D13">
-        <v>9.56415421615233</v>
+        <v>6.583061740411308</v>
       </c>
       <c r="E13">
-        <v>40.32915426448696</v>
+        <v>21.1163108477899</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.001789308945882</v>
+        <v>3.589302618767551</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.668718541557546</v>
+        <v>16.70760643879753</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.26824962297014</v>
+        <v>19.23265374749922</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.43885057323946</v>
+        <v>18.77593200122044</v>
       </c>
       <c r="C14">
-        <v>25.88097415233434</v>
+        <v>14.44482345065364</v>
       </c>
       <c r="D14">
-        <v>9.472567017034557</v>
+        <v>6.556318952933331</v>
       </c>
       <c r="E14">
-        <v>39.90738392382052</v>
+        <v>20.93128316030599</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.003474665511583</v>
+        <v>3.589799779239701</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.66101679628845</v>
+        <v>16.73300840833481</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.06667661937052</v>
+        <v>19.23018538489198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.25865438463205</v>
+        <v>18.68899781214913</v>
       </c>
       <c r="C15">
-        <v>25.73731287369056</v>
+        <v>14.36982708454428</v>
       </c>
       <c r="D15">
-        <v>9.41619634372614</v>
+        <v>6.539917590526207</v>
       </c>
       <c r="E15">
-        <v>39.64835850552989</v>
+        <v>20.81716586305578</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.004507010172802</v>
+        <v>3.59010595938356</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.657476713778287</v>
+        <v>16.74870252851926</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.943195599388</v>
+        <v>19.228850735688</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.21031895514589</v>
+        <v>18.18274082411529</v>
       </c>
       <c r="C16">
-        <v>24.90225256548242</v>
+        <v>13.93182963551521</v>
       </c>
       <c r="D16">
-        <v>9.088938671876194</v>
+        <v>6.445641363782595</v>
       </c>
       <c r="E16">
-        <v>38.15287086730911</v>
+        <v>20.15118606249291</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.010426058698958</v>
+        <v>3.591885979192407</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.654509556215954</v>
+        <v>16.84069478813083</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.2352181139055</v>
+        <v>19.22391311894114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.55301858411006</v>
+        <v>17.86502246743362</v>
       </c>
       <c r="C17">
-        <v>24.37929119770663</v>
+        <v>13.65578253298937</v>
       </c>
       <c r="D17">
-        <v>8.88433933532453</v>
+        <v>6.387583042568138</v>
       </c>
       <c r="E17">
-        <v>37.22478473103721</v>
+        <v>19.73187512139006</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.014062934881041</v>
+        <v>3.59300071475193</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.667346060707684</v>
+        <v>16.89895401334582</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.93508908207201</v>
+        <v>19.2232949991598</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.16968183679602</v>
+        <v>17.67967757701557</v>
       </c>
       <c r="C18">
-        <v>24.0745154209691</v>
+        <v>13.4943019628114</v>
       </c>
       <c r="D18">
-        <v>8.765221651466936</v>
+        <v>6.354120829132503</v>
       </c>
       <c r="E18">
-        <v>36.68678474230273</v>
+        <v>19.48673521115121</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.016157994365887</v>
+        <v>3.593650267388636</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.679797901822365</v>
+        <v>16.93313021600751</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.76985431790631</v>
+        <v>19.22382213160332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.03897883202547</v>
+        <v>17.61647864561873</v>
       </c>
       <c r="C19">
-        <v>23.97063442275893</v>
+        <v>13.43916231579524</v>
       </c>
       <c r="D19">
-        <v>8.724641048310675</v>
+        <v>6.342780604929844</v>
       </c>
       <c r="E19">
-        <v>36.50388299364528</v>
+        <v>19.4030532653738</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.016868000330294</v>
+        <v>3.593871637492479</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.684854287334261</v>
+        <v>16.94481591654738</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.71436253445949</v>
+        <v>19.2241518668106</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.62353387733246</v>
+        <v>17.89911397821292</v>
       </c>
       <c r="C20">
-        <v>24.43537221954669</v>
+        <v>13.68544813543526</v>
       </c>
       <c r="D20">
-        <v>8.906267465626726</v>
+        <v>6.393770854850403</v>
       </c>
       <c r="E20">
-        <v>37.32400872530818</v>
+        <v>19.77692142166106</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.013675473794833</v>
+        <v>3.592881181880105</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.665447840754224</v>
+        <v>16.89268310299178</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.96588661144197</v>
+        <v>19.22326936805781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.52498420127415</v>
+        <v>18.81747576768983</v>
       </c>
       <c r="C21">
-        <v>25.94965724329142</v>
+        <v>14.48064094694426</v>
       </c>
       <c r="D21">
-        <v>9.499524678724338</v>
+        <v>6.564178327673541</v>
       </c>
       <c r="E21">
-        <v>40.03140781712025</v>
+        <v>20.98579328620168</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.002979639362886</v>
+        <v>3.589653406396741</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.663031874765451</v>
+        <v>16.72551914586926</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.12588548417449</v>
+        <v>19.23087343953663</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.72212891314716</v>
+        <v>19.39402693031205</v>
       </c>
       <c r="C22">
-        <v>26.90515916747556</v>
+        <v>14.97635152436459</v>
       </c>
       <c r="D22">
-        <v>9.875054137142952</v>
+        <v>6.674661360209797</v>
       </c>
       <c r="E22">
-        <v>41.76970503208947</v>
+        <v>21.74080783988571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.995993052695493</v>
+        <v>3.587618010377652</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.713295028057644</v>
+        <v>16.62228595896577</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.96120090871809</v>
+        <v>19.24376975364773</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.08728607622518</v>
+        <v>19.08849536719137</v>
       </c>
       <c r="C23">
-        <v>26.39824855320851</v>
+        <v>14.71397190218229</v>
       </c>
       <c r="D23">
-        <v>9.675712069313045</v>
+        <v>6.615788693556396</v>
       </c>
       <c r="E23">
-        <v>40.84446575623911</v>
+        <v>21.34103814403468</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.999722893517367</v>
+        <v>3.58869758147146</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.68140549831489</v>
+        <v>16.67682891041219</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.51535597334368</v>
+        <v>19.2361586226724</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.59167089133663</v>
+        <v>17.88370956167406</v>
       </c>
       <c r="C24">
-        <v>24.41003083079216</v>
+        <v>13.67204496876018</v>
       </c>
       <c r="D24">
-        <v>8.896358407854326</v>
+        <v>6.390973602535889</v>
       </c>
       <c r="E24">
-        <v>37.27916342309449</v>
+        <v>19.75656867725348</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.013850631698056</v>
+        <v>3.592935195659513</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.666290303036561</v>
+        <v>16.89551605737939</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.95195500720351</v>
+        <v>19.22327820773487</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.69743918927827</v>
+        <v>16.48513354693592</v>
       </c>
       <c r="C25">
-        <v>22.11262695105336</v>
+        <v>12.4446703629532</v>
       </c>
       <c r="D25">
-        <v>8.000456331416258</v>
+        <v>6.146036951658545</v>
       </c>
       <c r="E25">
-        <v>33.27071273668716</v>
+        <v>17.89578715537306</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.029223612726033</v>
+        <v>3.597827102962322</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.839822240156131</v>
+        <v>17.15686628962754</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.79411487647297</v>
+        <v>19.24307161427025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.37372175046311</v>
+        <v>25.38566227934431</v>
       </c>
       <c r="C2">
-        <v>11.451355774266</v>
+        <v>20.28373408115306</v>
       </c>
       <c r="D2">
-        <v>5.965179928147954</v>
+        <v>7.290363494070181</v>
       </c>
       <c r="E2">
-        <v>16.54913201810116</v>
+        <v>30.15203743860306</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.601708615739476</v>
+        <v>2.040770961104718</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.370830946993</v>
+        <v>10.09541103063219</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.28612686431046</v>
+        <v>15.02566219060438</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57208628456858</v>
+        <v>23.70330080805509</v>
       </c>
       <c r="C3">
-        <v>10.72204778027259</v>
+        <v>18.95622849380055</v>
       </c>
       <c r="D3">
-        <v>5.843154896066161</v>
+        <v>6.776352561172567</v>
       </c>
       <c r="E3">
-        <v>15.60490516367876</v>
+        <v>27.92275113109067</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.604515383009726</v>
+        <v>2.048786882034815</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.52909789762156</v>
+        <v>10.33189524251176</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.33277193092449</v>
+        <v>14.5559880019965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.05711574745184</v>
+        <v>22.61246551453748</v>
       </c>
       <c r="C4">
-        <v>10.24651590419223</v>
+        <v>18.09708087594164</v>
       </c>
       <c r="D4">
-        <v>5.768801805894647</v>
+        <v>6.444185530762445</v>
       </c>
       <c r="E4">
-        <v>15.00029191135375</v>
+        <v>26.49360269682078</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.606326265246633</v>
+        <v>2.053816306217527</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.63276133484252</v>
+        <v>10.50343147384419</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.36991341533325</v>
+        <v>14.29229952075137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.84174361239727</v>
+        <v>22.15328909199098</v>
       </c>
       <c r="C5">
-        <v>10.04575705902912</v>
+        <v>17.73582144875805</v>
       </c>
       <c r="D5">
-        <v>5.738692651106138</v>
+        <v>6.30460510545726</v>
       </c>
       <c r="E5">
-        <v>14.74792590966965</v>
+        <v>25.89559470816357</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.60708630347566</v>
+        <v>2.055894757932781</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.67662823464669</v>
+        <v>10.57930039830504</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.38716845643157</v>
+        <v>14.19095675215515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.80565478508186</v>
+        <v>22.07615551354865</v>
       </c>
       <c r="C6">
-        <v>10.01199992413073</v>
+        <v>17.67515942194402</v>
       </c>
       <c r="D6">
-        <v>5.733705921085858</v>
+        <v>6.281171467406692</v>
       </c>
       <c r="E6">
-        <v>14.70566837845336</v>
+        <v>25.79534038345812</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.607213843787041</v>
+        <v>2.056241681602347</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.68401011073161</v>
+        <v>10.59224087508091</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.39016110448578</v>
+        <v>14.1744946355905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.05423320259608</v>
+        <v>22.60633235291193</v>
       </c>
       <c r="C7">
-        <v>10.2438366439628</v>
+        <v>18.09225403250332</v>
       </c>
       <c r="D7">
-        <v>5.768394910447803</v>
+        <v>6.442320256491301</v>
       </c>
       <c r="E7">
-        <v>14.99691223866804</v>
+        <v>26.48560154863397</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.6063364258429</v>
+        <v>2.05384421749245</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.63334637731836</v>
+        <v>10.50443132716415</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.37013756582716</v>
+        <v>14.29090817677407</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.10215483671753</v>
+        <v>24.81752579082502</v>
       </c>
       <c r="C8">
-        <v>11.2056440255637</v>
+        <v>19.83510446140772</v>
       </c>
       <c r="D8">
-        <v>5.923015140349388</v>
+        <v>7.116536050071141</v>
       </c>
       <c r="E8">
-        <v>16.22886648137328</v>
+        <v>29.39562979036773</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.602658274965584</v>
+        <v>2.043513682509129</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.42405015354992</v>
+        <v>10.17106970134477</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.30043517717806</v>
+        <v>14.85854312368557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.96920428669177</v>
+        <v>28.70002708638298</v>
       </c>
       <c r="C9">
-        <v>12.87199601542455</v>
+        <v>22.90748541768518</v>
       </c>
       <c r="D9">
-        <v>6.228734187518707</v>
+        <v>8.30989390574654</v>
       </c>
       <c r="E9">
-        <v>18.54299471116171</v>
+        <v>34.64528732800936</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.596136058385156</v>
+        <v>2.024016669037112</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.06546133971194</v>
+        <v>9.759196011768918</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.23194370882078</v>
+        <v>16.17089778960252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.21864032852567</v>
+        <v>31.28461125411392</v>
       </c>
       <c r="C10">
-        <v>13.96296223996974</v>
+        <v>24.96139058269354</v>
       </c>
       <c r="D10">
-        <v>6.452255952971892</v>
+        <v>9.11209203497326</v>
       </c>
       <c r="E10">
-        <v>20.19849613350473</v>
+        <v>38.25822368628172</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.591759914635575</v>
+        <v>2.010011423492436</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.83413765173825</v>
+        <v>9.653754672955145</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.22410350419671</v>
+        <v>17.28480468760683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.75933891070761</v>
+        <v>32.40445183206092</v>
       </c>
       <c r="C11">
-        <v>14.43051364001649</v>
+        <v>25.85354691764271</v>
       </c>
       <c r="D11">
-        <v>6.553183709969606</v>
+        <v>9.461803343165528</v>
       </c>
       <c r="E11">
-        <v>20.90950687465967</v>
+        <v>39.85789121310702</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.589858232041752</v>
+        <v>2.003672078068362</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.73600162333423</v>
+        <v>9.660270584506113</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.22991964844399</v>
+        <v>18.04306412256185</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.96003614463027</v>
+        <v>32.82067508696867</v>
       </c>
       <c r="C12">
-        <v>14.60344747943478</v>
+        <v>26.1855066855018</v>
       </c>
       <c r="D12">
-        <v>6.591253472331688</v>
+        <v>9.592130553845839</v>
       </c>
       <c r="E12">
-        <v>21.17273462188574</v>
+        <v>40.4582196375341</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.589150832337582</v>
+        <v>2.001272498634186</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.69987116074249</v>
+        <v>9.671556987889845</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.23348144102625</v>
+        <v>18.33005594915014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.91699370217858</v>
+        <v>32.73137899737104</v>
       </c>
       <c r="C13">
-        <v>14.56638598059957</v>
+        <v>26.1142715302766</v>
       </c>
       <c r="D13">
-        <v>6.583061740411308</v>
+        <v>9.564154216152312</v>
       </c>
       <c r="E13">
-        <v>21.1163108477899</v>
+        <v>40.329154264487</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.589302618767551</v>
+        <v>2.001789308945748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.70760643879753</v>
+        <v>9.668718541557562</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.23265374749922</v>
+        <v>18.26824962297014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.77593200122044</v>
+        <v>32.43885057323943</v>
       </c>
       <c r="C14">
-        <v>14.44482345065364</v>
+        <v>25.88097415233424</v>
       </c>
       <c r="D14">
-        <v>6.556318952933331</v>
+        <v>9.47256701703451</v>
       </c>
       <c r="E14">
-        <v>20.93128316030599</v>
+        <v>39.90738392382055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.589799779239701</v>
+        <v>2.003474665511718</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.73300840833481</v>
+        <v>9.661016796288518</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.23018538489198</v>
+        <v>18.06667661937052</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.68899781214913</v>
+        <v>32.25865438463196</v>
       </c>
       <c r="C15">
-        <v>14.36982708454428</v>
+        <v>25.73731287369059</v>
       </c>
       <c r="D15">
-        <v>6.539917590526207</v>
+        <v>9.416196343726144</v>
       </c>
       <c r="E15">
-        <v>20.81716586305578</v>
+        <v>39.64835850552979</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.59010595938356</v>
+        <v>2.004507010172801</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.74870252851926</v>
+        <v>9.657476713778367</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.228850735688</v>
+        <v>17.94319559938801</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.18274082411529</v>
+        <v>31.21031895514587</v>
       </c>
       <c r="C16">
-        <v>13.93182963551521</v>
+        <v>24.90225256548243</v>
       </c>
       <c r="D16">
-        <v>6.445641363782595</v>
+        <v>9.088938671876212</v>
       </c>
       <c r="E16">
-        <v>20.15118606249291</v>
+        <v>38.15287086730908</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.591885979192407</v>
+        <v>2.010426058698958</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.84069478813083</v>
+        <v>9.65450955621602</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.22391311894114</v>
+        <v>17.23521811390556</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.86502246743362</v>
+        <v>30.55301858411011</v>
       </c>
       <c r="C17">
-        <v>13.65578253298937</v>
+        <v>24.37929119770647</v>
       </c>
       <c r="D17">
-        <v>6.387583042568138</v>
+        <v>8.884339335324578</v>
       </c>
       <c r="E17">
-        <v>19.73187512139006</v>
+        <v>37.22478473103731</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.59300071475193</v>
+        <v>2.014062934880909</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.89895401334582</v>
+        <v>9.667346060707684</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.2232949991598</v>
+        <v>16.93508908207206</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.67967757701557</v>
+        <v>30.16968183679601</v>
       </c>
       <c r="C18">
-        <v>13.4943019628114</v>
+        <v>24.07451542096901</v>
       </c>
       <c r="D18">
-        <v>6.354120829132503</v>
+        <v>8.765221651466957</v>
       </c>
       <c r="E18">
-        <v>19.48673521115121</v>
+        <v>36.68678474230261</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.593650267388636</v>
+        <v>2.016157994366157</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.93313021600751</v>
+        <v>9.679797901822425</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.22382213160332</v>
+        <v>16.76985431790635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.61647864561873</v>
+        <v>30.0389788320254</v>
       </c>
       <c r="C19">
-        <v>13.43916231579524</v>
+        <v>23.97063442275892</v>
       </c>
       <c r="D19">
-        <v>6.342780604929844</v>
+        <v>8.724641048310684</v>
       </c>
       <c r="E19">
-        <v>19.4030532653738</v>
+        <v>36.50388299364518</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.593871637492479</v>
+        <v>2.016868000330294</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.94481591654738</v>
+        <v>9.684854287334367</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.2241518668106</v>
+        <v>16.71436253445953</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.89911397821292</v>
+        <v>30.62353387733248</v>
       </c>
       <c r="C20">
-        <v>13.68544813543526</v>
+        <v>24.43537221954666</v>
       </c>
       <c r="D20">
-        <v>6.393770854850403</v>
+        <v>8.906267465626682</v>
       </c>
       <c r="E20">
-        <v>19.77692142166106</v>
+        <v>37.32400872530818</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.592881181880105</v>
+        <v>2.013675473794966</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.89268310299178</v>
+        <v>9.665447840754274</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.22326936805781</v>
+        <v>16.96588661144201</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.81747576768983</v>
+        <v>32.52498420127425</v>
       </c>
       <c r="C21">
-        <v>14.48064094694426</v>
+        <v>25.94965724329145</v>
       </c>
       <c r="D21">
-        <v>6.564178327673541</v>
+        <v>9.499524678724361</v>
       </c>
       <c r="E21">
-        <v>20.98579328620168</v>
+        <v>40.03140781712042</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.589653406396741</v>
+        <v>2.002979639362886</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.72551914586926</v>
+        <v>9.663031874765396</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.23087343953663</v>
+        <v>18.1258854841746</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.39402693031205</v>
+        <v>33.72212891314716</v>
       </c>
       <c r="C22">
-        <v>14.97635152436459</v>
+        <v>26.90515916747554</v>
       </c>
       <c r="D22">
-        <v>6.674661360209797</v>
+        <v>9.875054137142968</v>
       </c>
       <c r="E22">
-        <v>21.74080783988571</v>
+        <v>41.76970503208937</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.587618010377652</v>
+        <v>1.995993052695361</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.62228595896577</v>
+        <v>9.713295028057694</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.24376975364773</v>
+        <v>18.96120090871806</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.08849536719137</v>
+        <v>33.08728607622526</v>
       </c>
       <c r="C23">
-        <v>14.71397190218229</v>
+        <v>26.3982485532085</v>
       </c>
       <c r="D23">
-        <v>6.615788693556396</v>
+        <v>9.675712069313036</v>
       </c>
       <c r="E23">
-        <v>21.34103814403468</v>
+        <v>40.84446575623911</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.58869758147146</v>
+        <v>1.99972289351777</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.67682891041219</v>
+        <v>9.681405498314847</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.2361586226724</v>
+        <v>18.5153559733438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.88370956167406</v>
+        <v>30.59167089133663</v>
       </c>
       <c r="C24">
-        <v>13.67204496876018</v>
+        <v>24.41003083079218</v>
       </c>
       <c r="D24">
-        <v>6.390973602535889</v>
+        <v>8.896358407854331</v>
       </c>
       <c r="E24">
-        <v>19.75656867725348</v>
+        <v>37.27916342309455</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.592935195659513</v>
+        <v>2.013850631697922</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.89551605737939</v>
+        <v>9.666290303036632</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.22327820773487</v>
+        <v>16.95195500720355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.48513354693592</v>
+        <v>27.69743918927836</v>
       </c>
       <c r="C25">
-        <v>12.4446703629532</v>
+        <v>22.1126269510534</v>
       </c>
       <c r="D25">
-        <v>6.146036951658545</v>
+        <v>8.000456331416281</v>
       </c>
       <c r="E25">
-        <v>17.89578715537306</v>
+        <v>33.27071273668719</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.597827102962322</v>
+        <v>2.029223612726301</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.15686628962754</v>
+        <v>9.839822240155968</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.24307161427025</v>
+        <v>15.79411487647289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38566227934431</v>
+        <v>12.20927883026106</v>
       </c>
       <c r="C2">
-        <v>20.28373408115306</v>
+        <v>7.502700046081101</v>
       </c>
       <c r="D2">
-        <v>7.290363494070181</v>
+        <v>6.955521598638064</v>
       </c>
       <c r="E2">
-        <v>30.15203743860306</v>
+        <v>6.512678902646252</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040770961104718</v>
+        <v>49.77908221876962</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.67891814809429</v>
       </c>
       <c r="I2">
-        <v>10.09541103063219</v>
+        <v>4.372908732988212</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>15.22269272561519</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>25.56305898335791</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.88873339573081</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.297915873390772</v>
       </c>
       <c r="O2">
-        <v>15.02566219060438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.478854539630312</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70330080805509</v>
+        <v>11.39438526709508</v>
       </c>
       <c r="C3">
-        <v>18.95622849380055</v>
+        <v>7.038724433376167</v>
       </c>
       <c r="D3">
-        <v>6.776352561172567</v>
+        <v>6.475582657717502</v>
       </c>
       <c r="E3">
-        <v>27.92275113109067</v>
+        <v>6.289403859756186</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.048786882034815</v>
+        <v>48.04581451040189</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.920607519375218</v>
       </c>
       <c r="I3">
-        <v>10.33189524251176</v>
+        <v>4.588494160674161</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.9433683227371</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>25.0096346920646</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.21966903493749</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.08991007737412</v>
       </c>
       <c r="O3">
-        <v>14.5559880019965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.103780452713989</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.61246551453748</v>
+        <v>10.88921701096626</v>
       </c>
       <c r="C4">
-        <v>18.09708087594164</v>
+        <v>6.743193177658563</v>
       </c>
       <c r="D4">
-        <v>6.444185530762445</v>
+        <v>6.202470349556525</v>
       </c>
       <c r="E4">
-        <v>26.49360269682078</v>
+        <v>6.147182765440448</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.053816306217527</v>
+        <v>46.9481726897757</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.074055507415037</v>
       </c>
       <c r="I4">
-        <v>10.50343147384419</v>
+        <v>4.725912519349981</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.76949575422407</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>24.66112230170051</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.78687631000335</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.958488059682144</v>
       </c>
       <c r="O4">
-        <v>14.29229952075137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.866501457003286</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15328909199098</v>
+        <v>10.68019173313298</v>
       </c>
       <c r="C5">
-        <v>17.73582144875805</v>
+        <v>6.626079139232758</v>
       </c>
       <c r="D5">
-        <v>6.30460510545726</v>
+        <v>6.092499109486919</v>
       </c>
       <c r="E5">
-        <v>25.89559470816357</v>
+        <v>6.086097493443897</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.055894757932781</v>
+        <v>46.45262628845612</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.138384619709496</v>
       </c>
       <c r="I5">
-        <v>10.57930039830504</v>
+        <v>4.785668762063999</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.68996719649782</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>24.49937709430196</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.606263163914917</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.904310062586864</v>
       </c>
       <c r="O5">
-        <v>14.19095675215515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.767988155310405</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07615551354865</v>
+        <v>10.64307184431307</v>
       </c>
       <c r="C6">
-        <v>17.67515942194402</v>
+        <v>6.613828514962405</v>
       </c>
       <c r="D6">
-        <v>6.281171467406692</v>
+        <v>6.074068083077846</v>
       </c>
       <c r="E6">
-        <v>25.79534038345812</v>
+        <v>6.07362994638793</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.056241681602347</v>
+        <v>46.32051888075086</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.149760078517524</v>
       </c>
       <c r="I6">
-        <v>10.59224087508091</v>
+        <v>4.798801663028048</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.66678282996369</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>24.45080599033049</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.577496314744266</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.895591957986579</v>
       </c>
       <c r="O6">
-        <v>14.1744946355905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.751320653488063</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.60633235291193</v>
+        <v>10.8809787728203</v>
       </c>
       <c r="C7">
-        <v>18.09225403250332</v>
+        <v>6.761263202687704</v>
       </c>
       <c r="D7">
-        <v>6.442320256491301</v>
+        <v>6.200919315017206</v>
       </c>
       <c r="E7">
-        <v>26.48560154863397</v>
+        <v>6.140305597635745</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.05384421749245</v>
+        <v>46.80834655369546</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.076575833816882</v>
       </c>
       <c r="I7">
-        <v>10.50443132716415</v>
+        <v>4.735032930024465</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.74144768645889</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24.60042793053933</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.788620097426151</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.958662205359425</v>
       </c>
       <c r="O7">
-        <v>14.29090817677407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.86459665631401</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81752579082502</v>
+        <v>11.9270508161866</v>
       </c>
       <c r="C8">
-        <v>19.83510446140772</v>
+        <v>7.36899918294284</v>
       </c>
       <c r="D8">
-        <v>7.116536050071141</v>
+        <v>6.793316191131662</v>
       </c>
       <c r="E8">
-        <v>29.39562979036773</v>
+        <v>6.42908544606606</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.043513682509129</v>
+        <v>49.02006354593478</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.763321582123655</v>
       </c>
       <c r="I8">
-        <v>10.17106970134477</v>
+        <v>4.456812292190087</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15.09213619781817</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25.29888200177173</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.66770589749566</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.228168452919869</v>
       </c>
       <c r="O8">
-        <v>14.85854312368557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.35027192185014</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70002708638298</v>
+        <v>13.79936341444062</v>
       </c>
       <c r="C9">
-        <v>22.90748541768518</v>
+        <v>8.445721875974284</v>
       </c>
       <c r="D9">
-        <v>8.30989390574654</v>
+        <v>7.900130559966303</v>
       </c>
       <c r="E9">
-        <v>34.64528732800936</v>
+        <v>6.965083219007882</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.024016669037112</v>
+        <v>53.29654072940295</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.18516276309633</v>
       </c>
       <c r="I9">
-        <v>9.759196011768918</v>
+        <v>3.936593740992948</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.80527921402626</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.69490627537008</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.21056877427075</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.724147903058262</v>
       </c>
       <c r="O9">
-        <v>16.17089778960252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.24419337272688</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.28461125411392</v>
+        <v>15.02413048069988</v>
       </c>
       <c r="C10">
-        <v>24.96139058269354</v>
+        <v>9.239001609075501</v>
       </c>
       <c r="D10">
-        <v>9.11209203497326</v>
+        <v>8.634837759834646</v>
       </c>
       <c r="E10">
-        <v>38.25822368628172</v>
+        <v>7.232123170604932</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.010011423492436</v>
+        <v>55.63606544534273</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.813020985212397</v>
       </c>
       <c r="I10">
-        <v>9.653754672955145</v>
+        <v>3.590552747433969</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.18270917218535</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>27.39755558968787</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.25534288869486</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.961290333020842</v>
       </c>
       <c r="O10">
-        <v>17.28480468760683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.78555212159747</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.40445183206092</v>
+        <v>15.51239644112892</v>
       </c>
       <c r="C11">
-        <v>25.85354691764271</v>
+        <v>10.00015911498883</v>
       </c>
       <c r="D11">
-        <v>9.461803343165528</v>
+        <v>8.94578017779644</v>
       </c>
       <c r="E11">
-        <v>39.85789121310702</v>
+        <v>6.671543678171657</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.003672078068362</v>
+        <v>51.77423675322225</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.525691845152062</v>
       </c>
       <c r="I11">
-        <v>9.660270584506113</v>
+        <v>3.52259830064154</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.29851791781399</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.53568737290096</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.84564727626663</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.187970920583952</v>
       </c>
       <c r="O11">
-        <v>18.04306412256185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.3830175394066</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.82067508696867</v>
+        <v>15.68511309829246</v>
       </c>
       <c r="C12">
-        <v>26.1855066855018</v>
+        <v>10.47453107083864</v>
       </c>
       <c r="D12">
-        <v>9.592130553845839</v>
+        <v>9.058723957901304</v>
       </c>
       <c r="E12">
-        <v>40.4582196375341</v>
+        <v>6.444516805933392</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.001272498634186</v>
+        <v>48.17642354525491</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.703918618117142</v>
       </c>
       <c r="I12">
-        <v>9.671556987889845</v>
+        <v>3.515306091556966</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.51364808729488</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.91656269746038</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.13109002662769</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.555447476283297</v>
       </c>
       <c r="O12">
-        <v>18.33005594915014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.925665490709362</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.73137899737104</v>
+        <v>15.62420792770831</v>
       </c>
       <c r="C13">
-        <v>26.1142715302766</v>
+        <v>10.79274027564269</v>
       </c>
       <c r="D13">
-        <v>9.564154216152312</v>
+        <v>9.02942728980007</v>
       </c>
       <c r="E13">
-        <v>40.329154264487</v>
+        <v>6.471601970034165</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.001789308945748</v>
+        <v>44.3181268722715</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.021403592626744</v>
       </c>
       <c r="I13">
-        <v>9.668718541557562</v>
+        <v>3.568305175781028</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.71390903679371</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.29579667279068</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.21278800971633</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.01397621231337</v>
       </c>
       <c r="O13">
-        <v>18.26824962297014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.388577717720516</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.43885057323943</v>
+        <v>15.47406500079762</v>
       </c>
       <c r="C14">
-        <v>25.88097415233424</v>
+        <v>10.9564837163025</v>
       </c>
       <c r="D14">
-        <v>9.47256701703451</v>
+        <v>8.944309663343407</v>
       </c>
       <c r="E14">
-        <v>39.90738392382055</v>
+        <v>6.645480856174816</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.003474665511718</v>
+        <v>41.44766034748118</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.984832788178467</v>
       </c>
       <c r="I14">
-        <v>9.661016796288518</v>
+        <v>3.634855316558283</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.14345259212199</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.15694330794067</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.18061490612119</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.70910348403105</v>
       </c>
       <c r="O14">
-        <v>18.06667661937052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.972441080497333</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.25865438463196</v>
+        <v>15.38480152101518</v>
       </c>
       <c r="C15">
-        <v>25.73731287369059</v>
+        <v>10.96901339969024</v>
       </c>
       <c r="D15">
-        <v>9.416196343726144</v>
+        <v>8.892810570020879</v>
       </c>
       <c r="E15">
-        <v>39.64835850552979</v>
+        <v>6.697994695867576</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.004507010172801</v>
+        <v>40.65024744289703</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.21440919623076</v>
       </c>
       <c r="I15">
-        <v>9.657476713778367</v>
+        <v>3.668738481895786</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.99304512326172</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.86076793903337</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.12996037666523</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.6453283910585</v>
       </c>
       <c r="O15">
-        <v>17.94319559938801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.853865448827616</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.21031895514587</v>
+        <v>14.89150938256368</v>
       </c>
       <c r="C16">
-        <v>24.90225256548243</v>
+        <v>10.6181690407521</v>
       </c>
       <c r="D16">
-        <v>9.088938671876212</v>
+        <v>8.596535843370546</v>
       </c>
       <c r="E16">
-        <v>38.15287086730908</v>
+        <v>6.563492310138005</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.010426058698958</v>
+        <v>40.19181564007889</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.061097277106095</v>
       </c>
       <c r="I16">
-        <v>9.65450955621602</v>
+        <v>3.810743739458038</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.96410354801483</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.82759916044554</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.69632077345964</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.635454047585767</v>
       </c>
       <c r="O16">
-        <v>17.23521811390556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.71094078916272</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.55301858411011</v>
+        <v>14.58779464988832</v>
       </c>
       <c r="C17">
-        <v>24.37929119770647</v>
+        <v>10.2498917946429</v>
       </c>
       <c r="D17">
-        <v>8.884339335324578</v>
+        <v>8.411803583254333</v>
       </c>
       <c r="E17">
-        <v>37.22478473103731</v>
+        <v>6.334930171166071</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.014062934880909</v>
+        <v>41.39934312101433</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.410281405156715</v>
       </c>
       <c r="I17">
-        <v>9.667346060707684</v>
+        <v>3.885358434868844</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.24519765545405</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.403426372074</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.37379180040011</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.775722852674058</v>
       </c>
       <c r="O17">
-        <v>16.93508908207206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.828163597606823</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.16968183679601</v>
+        <v>14.42507233802874</v>
       </c>
       <c r="C18">
-        <v>24.07451542096901</v>
+        <v>9.818183568066843</v>
       </c>
       <c r="D18">
-        <v>8.765221651466957</v>
+        <v>8.306057289143528</v>
       </c>
       <c r="E18">
-        <v>36.68678474230261</v>
+        <v>6.156836571208829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.016157994366157</v>
+        <v>44.29099502897763</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.308638823609904</v>
       </c>
       <c r="I18">
-        <v>9.679797901822425</v>
+        <v>3.897829459644278</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.85334745998962</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.64059293517446</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.11446129468529</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.139937175035735</v>
       </c>
       <c r="O18">
-        <v>16.76985431790635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.184433609543092</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.0389788320254</v>
+        <v>14.3827295575377</v>
       </c>
       <c r="C19">
-        <v>23.97063442275892</v>
+        <v>9.417647613683521</v>
       </c>
       <c r="D19">
-        <v>8.724641048310684</v>
+        <v>8.273072200653656</v>
       </c>
       <c r="E19">
-        <v>36.50388299364518</v>
+        <v>6.282514033832102</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.016868000330294</v>
+        <v>48.1205698603808</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.078237630915548</v>
       </c>
       <c r="I19">
-        <v>9.684854287334367</v>
+        <v>3.871581075138597</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.6507632003465</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.27094234576065</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.93847533310633</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.746392224282503</v>
       </c>
       <c r="O19">
-        <v>16.71436253445953</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.703213865718997</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.62353387733248</v>
+        <v>14.69684135880966</v>
       </c>
       <c r="C20">
-        <v>24.43537221954666</v>
+        <v>9.08420807393645</v>
       </c>
       <c r="D20">
-        <v>8.906267465626682</v>
+        <v>8.446594715660261</v>
       </c>
       <c r="E20">
-        <v>37.32400872530818</v>
+        <v>7.142365958357094</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.013675473794966</v>
+        <v>54.6539182314222</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.913929058871558</v>
       </c>
       <c r="I20">
-        <v>9.665447840754274</v>
+        <v>3.708258211072307</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.00310222420219</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>27.04153727225694</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.99899954558189</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.897697706651551</v>
       </c>
       <c r="O20">
-        <v>16.96588661144201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.64081015333436</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.52498420127425</v>
+        <v>15.60161339193141</v>
       </c>
       <c r="C21">
-        <v>25.94965724329145</v>
+        <v>9.596460259115469</v>
       </c>
       <c r="D21">
-        <v>9.499524678724361</v>
+        <v>8.98769570304416</v>
       </c>
       <c r="E21">
-        <v>40.03140781712042</v>
+        <v>7.499383151368116</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.002979639362886</v>
+        <v>57.32622472999878</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.588752967902862</v>
       </c>
       <c r="I21">
-        <v>9.663031874765396</v>
+        <v>3.431312268220728</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.48905202101275</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.98258091097327</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.74119224716006</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.238742684796297</v>
       </c>
       <c r="O21">
-        <v>18.1258854841746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.15805100757102</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.72212891314716</v>
+        <v>16.17125485611516</v>
       </c>
       <c r="C22">
-        <v>26.90515916747554</v>
+        <v>9.928051503158395</v>
       </c>
       <c r="D22">
-        <v>9.875054137142968</v>
+        <v>9.327646580484846</v>
       </c>
       <c r="E22">
-        <v>41.76970503208937</v>
+        <v>7.683496557444344</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.995993052695361</v>
+        <v>58.88667732724716</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.392338841954201</v>
       </c>
       <c r="I22">
-        <v>9.713295028057694</v>
+        <v>3.246632307579405</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.77257507830567</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>28.52588767515005</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.21162971319706</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.401320549125058</v>
       </c>
       <c r="O22">
-        <v>18.96120090871806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.45023110534528</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.08728607622526</v>
+        <v>15.8749497570518</v>
       </c>
       <c r="C23">
-        <v>26.3982485532085</v>
+        <v>9.734984642339649</v>
       </c>
       <c r="D23">
-        <v>9.675712069313036</v>
+        <v>9.147605958153756</v>
       </c>
       <c r="E23">
-        <v>40.84446575623911</v>
+        <v>7.591511486881135</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.99972289351777</v>
+        <v>58.18557121261693</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.495199253076696</v>
       </c>
       <c r="I23">
-        <v>9.681405498314847</v>
+        <v>3.333685485712179</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.64957084642747</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.29695985646279</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.95870906988642</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.313950145980103</v>
       </c>
       <c r="O23">
-        <v>18.5153559733438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.2957306539142</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.59167089133663</v>
+        <v>14.69341324397571</v>
       </c>
       <c r="C24">
-        <v>24.41003083079218</v>
+        <v>9.012546134184685</v>
       </c>
       <c r="D24">
-        <v>8.896358407854331</v>
+        <v>8.438387780178964</v>
       </c>
       <c r="E24">
-        <v>37.27916342309455</v>
+        <v>7.225900828438937</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.013850631697922</v>
+        <v>55.25506362450612</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.894231955764606</v>
       </c>
       <c r="I24">
-        <v>9.666290303036632</v>
+        <v>3.688974767865377</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.1337413503288</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>27.31636184039051</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.96845838152755</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.976324007197015</v>
       </c>
       <c r="O24">
-        <v>16.95195500720355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.69271553049294</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.69743918927836</v>
+        <v>13.30901814185057</v>
       </c>
       <c r="C25">
-        <v>22.1126269510534</v>
+        <v>8.193025980285931</v>
       </c>
       <c r="D25">
-        <v>8.000456331416281</v>
+        <v>7.614251618369814</v>
       </c>
       <c r="E25">
-        <v>33.27071273668719</v>
+        <v>6.81450076337438</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.029223612726301</v>
+        <v>51.95634416926909</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.340291984045964</v>
       </c>
       <c r="I25">
-        <v>9.839822240155968</v>
+        <v>4.088380253731068</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15.56924442909165</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>26.22739114845648</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.81810188436422</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.595057929937136</v>
       </c>
       <c r="O25">
-        <v>15.79411487647289</v>
+        <v>10.00822007849043</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20927883026106</v>
+        <v>12.10321202047071</v>
       </c>
       <c r="C2">
-        <v>7.502700046081101</v>
+        <v>8.073413310473866</v>
       </c>
       <c r="D2">
-        <v>6.955521598638064</v>
+        <v>6.970983024332335</v>
       </c>
       <c r="E2">
-        <v>6.512678902646252</v>
+        <v>6.348742923494101</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.77908221876962</v>
+        <v>43.23627635892238</v>
       </c>
       <c r="H2">
-        <v>3.67891814809429</v>
+        <v>3.443737268376525</v>
       </c>
       <c r="I2">
-        <v>4.372908732988212</v>
+        <v>4.085126530484952</v>
       </c>
       <c r="J2">
-        <v>15.22269272561519</v>
+        <v>13.84806517327969</v>
       </c>
       <c r="K2">
-        <v>25.56305898335791</v>
+        <v>22.44321445689145</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.41490937620141</v>
       </c>
       <c r="M2">
-        <v>10.88873339573081</v>
+        <v>15.92288118979594</v>
       </c>
       <c r="N2">
-        <v>6.297915873390772</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.478854539630312</v>
+        <v>11.1657493458381</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.544781354326794</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.419583424189062</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.39438526709508</v>
+        <v>11.32321500732733</v>
       </c>
       <c r="C3">
-        <v>7.038724433376167</v>
+        <v>7.509030338744275</v>
       </c>
       <c r="D3">
-        <v>6.475582657717502</v>
+        <v>6.491726884928954</v>
       </c>
       <c r="E3">
-        <v>6.289403859756186</v>
+        <v>6.167565520714296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.04581451040189</v>
+        <v>42.17398824164562</v>
       </c>
       <c r="H3">
-        <v>3.920607519375218</v>
+        <v>3.660229707793677</v>
       </c>
       <c r="I3">
-        <v>4.588494160674161</v>
+        <v>4.270340500118388</v>
       </c>
       <c r="J3">
-        <v>14.9433683227371</v>
+        <v>13.64870076227138</v>
       </c>
       <c r="K3">
-        <v>25.0096346920646</v>
+        <v>22.16745406337826</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.32297111818999</v>
       </c>
       <c r="M3">
-        <v>10.21966903493749</v>
+        <v>15.62402957295429</v>
       </c>
       <c r="N3">
-        <v>6.08991007737412</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.103780452713989</v>
+        <v>10.48635943238186</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.34567093018234</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.042429424327525</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.88921701096626</v>
+        <v>10.81503444313736</v>
       </c>
       <c r="C4">
-        <v>6.743193177658563</v>
+        <v>7.147303854072519</v>
       </c>
       <c r="D4">
-        <v>6.202470349556525</v>
+        <v>6.2138392749752</v>
       </c>
       <c r="E4">
-        <v>6.147182765440448</v>
+        <v>6.052218940424833</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.9481726897757</v>
+        <v>41.50761814031038</v>
       </c>
       <c r="H4">
-        <v>4.074055507415037</v>
+        <v>3.797822176249957</v>
       </c>
       <c r="I4">
-        <v>4.725912519349981</v>
+        <v>4.388782210090477</v>
       </c>
       <c r="J4">
-        <v>14.76949575422407</v>
+        <v>13.52275332072203</v>
       </c>
       <c r="K4">
-        <v>24.66112230170051</v>
+        <v>21.99303768388364</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.25785046130323</v>
       </c>
       <c r="M4">
-        <v>9.78687631000335</v>
+        <v>15.45140729465148</v>
       </c>
       <c r="N4">
-        <v>5.958488059682144</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.866501457003286</v>
+        <v>10.046827077385</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.220275764652315</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.803421030611613</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68019173313298</v>
+        <v>10.59888952510272</v>
       </c>
       <c r="C5">
-        <v>6.626079139232758</v>
+        <v>7.002382561309553</v>
       </c>
       <c r="D5">
-        <v>6.092499109486919</v>
+        <v>6.103687465035157</v>
       </c>
       <c r="E5">
-        <v>6.086097493443897</v>
+        <v>6.002725984585273</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.45262628845612</v>
+        <v>41.19882071457381</v>
       </c>
       <c r="H5">
-        <v>4.138384619709496</v>
+        <v>3.855523842315648</v>
       </c>
       <c r="I5">
-        <v>4.785668762063999</v>
+        <v>4.441045194946802</v>
       </c>
       <c r="J5">
-        <v>14.68996719649782</v>
+        <v>13.46364935903452</v>
       </c>
       <c r="K5">
-        <v>24.49937709430196</v>
+        <v>21.90634131984498</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.21688959677209</v>
       </c>
       <c r="M5">
-        <v>9.606263163914917</v>
+        <v>15.37446535008942</v>
       </c>
       <c r="N5">
-        <v>5.904310062586864</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.767988155310405</v>
+        <v>9.863244195022872</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.168647230164965</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.704111461762476</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64307184431307</v>
+        <v>10.56050093365054</v>
       </c>
       <c r="C6">
-        <v>6.613828514962405</v>
+        <v>6.985817775603723</v>
       </c>
       <c r="D6">
-        <v>6.074068083077846</v>
+        <v>6.085227009233357</v>
       </c>
       <c r="E6">
-        <v>6.07362994638793</v>
+        <v>5.992671876393161</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.32051888075086</v>
+        <v>41.10589032651357</v>
       </c>
       <c r="H6">
-        <v>4.149760078517524</v>
+        <v>3.865713304089945</v>
       </c>
       <c r="I6">
-        <v>4.798801663028048</v>
+        <v>4.453364960909079</v>
       </c>
       <c r="J6">
-        <v>14.66678282996369</v>
+        <v>13.44532314205777</v>
       </c>
       <c r="K6">
-        <v>24.45080599033049</v>
+        <v>21.87431102162486</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.19502360198192</v>
       </c>
       <c r="M6">
-        <v>9.577496314744266</v>
+        <v>15.35024397626053</v>
       </c>
       <c r="N6">
-        <v>5.895591957986579</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.751320653488063</v>
+        <v>9.833808117236241</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.160297243818902</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.687331405138167</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.8809787728203</v>
+        <v>10.80855006604657</v>
       </c>
       <c r="C7">
-        <v>6.761263202687704</v>
+        <v>7.155963734087383</v>
       </c>
       <c r="D7">
-        <v>6.200919315017206</v>
+        <v>6.212254508226448</v>
       </c>
       <c r="E7">
-        <v>6.140305597635745</v>
+        <v>6.047413546808833</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.80834655369546</v>
+        <v>41.43308147455532</v>
       </c>
       <c r="H7">
-        <v>4.076575833816882</v>
+        <v>3.800752625972728</v>
       </c>
       <c r="I7">
-        <v>4.735032930024465</v>
+        <v>4.399710187326086</v>
       </c>
       <c r="J7">
-        <v>14.74144768645889</v>
+        <v>13.44140447349954</v>
       </c>
       <c r="K7">
-        <v>24.60042793053933</v>
+        <v>21.92082811315488</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.19764118547079</v>
       </c>
       <c r="M7">
-        <v>9.788620097426151</v>
+        <v>15.4024959410317</v>
       </c>
       <c r="N7">
-        <v>5.958662205359425</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.86459665631401</v>
+        <v>10.04557235070681</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.219271475550332</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.801935583214716</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.9270508161866</v>
+        <v>11.839374839565</v>
       </c>
       <c r="C8">
-        <v>7.36899918294284</v>
+        <v>7.876459139194891</v>
       </c>
       <c r="D8">
-        <v>6.793316191131662</v>
+        <v>6.80886012563045</v>
       </c>
       <c r="E8">
-        <v>6.42908544606606</v>
+        <v>6.283247672500811</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.02006354593478</v>
+        <v>42.86634011429381</v>
       </c>
       <c r="H8">
-        <v>3.763321582123655</v>
+        <v>3.521457419855707</v>
       </c>
       <c r="I8">
-        <v>4.456812292190087</v>
+        <v>4.162454940908946</v>
       </c>
       <c r="J8">
-        <v>15.09213619781817</v>
+        <v>13.56443720725482</v>
       </c>
       <c r="K8">
-        <v>25.29888200177173</v>
+        <v>22.21245669386774</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.27428267840837</v>
       </c>
       <c r="M8">
-        <v>10.66770589749566</v>
+        <v>15.72105341438882</v>
       </c>
       <c r="N8">
-        <v>6.228168452919869</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.35027192185014</v>
+        <v>10.93301358931719</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.474505340509038</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.291562523621877</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.79936341444062</v>
+        <v>13.63164954830416</v>
       </c>
       <c r="C9">
-        <v>8.445721875974284</v>
+        <v>9.173595574995391</v>
       </c>
       <c r="D9">
-        <v>7.900130559966303</v>
+        <v>7.912888576829083</v>
       </c>
       <c r="E9">
-        <v>6.965083219007882</v>
+        <v>6.719082412949663</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.29654072940295</v>
+        <v>45.59180914935928</v>
       </c>
       <c r="H9">
-        <v>3.18516276309633</v>
+        <v>3.004875466412659</v>
       </c>
       <c r="I9">
-        <v>3.936593740992948</v>
+        <v>3.71561941690055</v>
       </c>
       <c r="J9">
-        <v>15.80527921402626</v>
+        <v>14.02526964179147</v>
       </c>
       <c r="K9">
-        <v>26.69490627537008</v>
+        <v>22.91044039872104</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.49365813356795</v>
       </c>
       <c r="M9">
-        <v>12.21056877427075</v>
+        <v>16.54168540478754</v>
       </c>
       <c r="N9">
-        <v>6.724147903058262</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.24419337272688</v>
+        <v>12.49827481764941</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.950875623099972</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.18817689429699</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.02413048069988</v>
+        <v>14.81618106407476</v>
       </c>
       <c r="C10">
-        <v>9.239001609075501</v>
+        <v>10.05539904327326</v>
       </c>
       <c r="D10">
-        <v>8.634837759834646</v>
+        <v>8.644339505804778</v>
       </c>
       <c r="E10">
-        <v>7.232123170604932</v>
+        <v>6.937426979569096</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.63606544534273</v>
+        <v>47.25353357736143</v>
       </c>
       <c r="H10">
-        <v>2.813020985212397</v>
+        <v>2.678515742741647</v>
       </c>
       <c r="I10">
-        <v>3.590552747433969</v>
+        <v>3.424854107745898</v>
       </c>
       <c r="J10">
-        <v>16.18270917218535</v>
+        <v>13.94323329931431</v>
       </c>
       <c r="K10">
-        <v>27.39755558968787</v>
+        <v>23.07251514474759</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.37094533597149</v>
       </c>
       <c r="M10">
-        <v>13.25534288869486</v>
+        <v>16.9349510745376</v>
       </c>
       <c r="N10">
-        <v>6.961290333020842</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.78555212159747</v>
+        <v>13.54249263573698</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.170131418356042</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.73118627087369</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.51239644112892</v>
+        <v>15.34062943211459</v>
       </c>
       <c r="C11">
-        <v>10.00015911498883</v>
+        <v>10.70049491084528</v>
       </c>
       <c r="D11">
-        <v>8.94578017779644</v>
+        <v>8.954526586641613</v>
       </c>
       <c r="E11">
-        <v>6.671543678171657</v>
+        <v>6.493886426923609</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.77423675322225</v>
+        <v>44.52423634978351</v>
       </c>
       <c r="H11">
-        <v>3.525691845152062</v>
+        <v>3.428598101393242</v>
       </c>
       <c r="I11">
-        <v>3.52259830064154</v>
+        <v>3.374037089358195</v>
       </c>
       <c r="J11">
-        <v>15.29851791781399</v>
+        <v>12.64628275634125</v>
       </c>
       <c r="K11">
-        <v>25.53568737290096</v>
+        <v>21.34678634805229</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.98239511850468</v>
       </c>
       <c r="M11">
-        <v>13.84564727626663</v>
+        <v>15.7323069686551</v>
       </c>
       <c r="N11">
-        <v>6.187970920583952</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.3830175394066</v>
+        <v>14.09013281963377</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.373512743921678</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.33483580559847</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68511309829246</v>
+        <v>15.54650894584505</v>
       </c>
       <c r="C12">
-        <v>10.47453107083864</v>
+        <v>11.07188792712329</v>
       </c>
       <c r="D12">
-        <v>9.058723957901304</v>
+        <v>9.067720258982209</v>
       </c>
       <c r="E12">
-        <v>6.444516805933392</v>
+        <v>6.364209810096424</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.17642354525491</v>
+        <v>41.85421040547075</v>
       </c>
       <c r="H12">
-        <v>4.703918618117142</v>
+        <v>4.630415899114944</v>
       </c>
       <c r="I12">
-        <v>3.515306091556966</v>
+        <v>3.366395194391082</v>
       </c>
       <c r="J12">
-        <v>14.51364808729488</v>
+        <v>11.82667589438516</v>
       </c>
       <c r="K12">
-        <v>23.91656269746038</v>
+        <v>20.03157571549503</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.98687170361633</v>
       </c>
       <c r="M12">
-        <v>14.13109002662769</v>
+        <v>14.74893657153952</v>
       </c>
       <c r="N12">
-        <v>5.555447476283297</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.925665490709362</v>
+        <v>14.34556339314575</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.727714564539877</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.881480615029435</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.62420792770831</v>
+        <v>15.5162412969233</v>
       </c>
       <c r="C13">
-        <v>10.79274027564269</v>
+        <v>11.31143853693597</v>
       </c>
       <c r="D13">
-        <v>9.02942728980007</v>
+        <v>9.039668302984008</v>
       </c>
       <c r="E13">
-        <v>6.471601970034165</v>
+        <v>6.477947279689655</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.3181268722715</v>
+        <v>38.77159929761599</v>
       </c>
       <c r="H13">
-        <v>6.021403592626744</v>
+        <v>5.957514916313032</v>
       </c>
       <c r="I13">
-        <v>3.568305175781028</v>
+        <v>3.406645723101696</v>
       </c>
       <c r="J13">
-        <v>13.71390903679371</v>
+        <v>11.35947247848005</v>
       </c>
       <c r="K13">
-        <v>22.29579667279068</v>
+        <v>18.91988880554531</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.19124642438559</v>
       </c>
       <c r="M13">
-        <v>14.21278800971633</v>
+        <v>13.86086519468285</v>
       </c>
       <c r="N13">
-        <v>5.01397621231337</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.388577717720516</v>
+        <v>14.4085043592492</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.18120674134416</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.34613354713527</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.47406500079762</v>
+        <v>15.38694911187854</v>
       </c>
       <c r="C14">
-        <v>10.9564837163025</v>
+        <v>11.429034883366</v>
       </c>
       <c r="D14">
-        <v>8.944309663343407</v>
+        <v>8.955819784944625</v>
       </c>
       <c r="E14">
-        <v>6.645480856174816</v>
+        <v>6.704059072663951</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>41.44766034748118</v>
+        <v>36.3969475997655</v>
       </c>
       <c r="H14">
-        <v>6.984832788178467</v>
+        <v>6.923512578351946</v>
       </c>
       <c r="I14">
-        <v>3.634855316558283</v>
+        <v>3.459418577468113</v>
       </c>
       <c r="J14">
-        <v>13.14345259212199</v>
+        <v>11.16180787517847</v>
       </c>
       <c r="K14">
-        <v>21.15694330794067</v>
+        <v>18.2225564387304</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.70966748660535</v>
       </c>
       <c r="M14">
-        <v>14.18061490612119</v>
+        <v>13.27866045160818</v>
       </c>
       <c r="N14">
-        <v>4.70910348403105</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.972441080497333</v>
+        <v>14.36749823244618</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.875596461495853</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.93000190752006</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38480152101518</v>
+        <v>15.30275590186138</v>
       </c>
       <c r="C15">
-        <v>10.96901339969024</v>
+        <v>11.43527058771412</v>
       </c>
       <c r="D15">
-        <v>8.892810570020879</v>
+        <v>8.904833842400391</v>
       </c>
       <c r="E15">
-        <v>6.697994695867576</v>
+        <v>6.770046235542451</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.65024744289703</v>
+        <v>35.70743637607131</v>
       </c>
       <c r="H15">
-        <v>7.21440919623076</v>
+        <v>7.152297088084119</v>
       </c>
       <c r="I15">
-        <v>3.668738481895786</v>
+        <v>3.487904096626713</v>
       </c>
       <c r="J15">
-        <v>12.99304512326172</v>
+        <v>11.1609377102681</v>
       </c>
       <c r="K15">
-        <v>20.86076793903337</v>
+        <v>18.07167391142852</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.61129479330804</v>
       </c>
       <c r="M15">
-        <v>14.12996037666523</v>
+        <v>13.1432296787379</v>
       </c>
       <c r="N15">
-        <v>4.6453283910585</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.853865448827616</v>
+        <v>14.316691172658</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.813149439353944</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.81093582379879</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.89150938256368</v>
+        <v>14.80889747735174</v>
       </c>
       <c r="C16">
-        <v>10.6181690407521</v>
+        <v>11.13096314886343</v>
       </c>
       <c r="D16">
-        <v>8.596535843370546</v>
+        <v>8.610369642814174</v>
       </c>
       <c r="E16">
-        <v>6.563492310138005</v>
+        <v>6.656176089212505</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.19181564007889</v>
+        <v>35.1153361001512</v>
       </c>
       <c r="H16">
-        <v>7.061097277106095</v>
+        <v>6.984903731521601</v>
       </c>
       <c r="I16">
-        <v>3.810743739458038</v>
+        <v>3.605010164826163</v>
       </c>
       <c r="J16">
-        <v>12.96410354801483</v>
+        <v>11.62267922305598</v>
       </c>
       <c r="K16">
-        <v>20.82759916044554</v>
+        <v>18.33039974307382</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.85029427353377</v>
       </c>
       <c r="M16">
-        <v>13.69632077345964</v>
+        <v>13.26867371153134</v>
       </c>
       <c r="N16">
-        <v>4.635454047585767</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.71094078916272</v>
+        <v>13.90213450583534</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.819442767707906</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.663799202028654</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.58779464988832</v>
+        <v>14.49560656992529</v>
       </c>
       <c r="C17">
-        <v>10.2498917946429</v>
+        <v>10.81225238872868</v>
       </c>
       <c r="D17">
-        <v>8.411803583254333</v>
+        <v>8.426240913296541</v>
       </c>
       <c r="E17">
-        <v>6.334930171166071</v>
+        <v>6.412530335455756</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.39934312101433</v>
+        <v>35.99739869564477</v>
       </c>
       <c r="H17">
-        <v>6.410281405156715</v>
+        <v>6.319277658002155</v>
       </c>
       <c r="I17">
-        <v>3.885358434868844</v>
+        <v>3.66853299659999</v>
       </c>
       <c r="J17">
-        <v>13.24519765545405</v>
+        <v>12.0472553804697</v>
       </c>
       <c r="K17">
-        <v>21.403426372074</v>
+        <v>18.88008996428514</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.28939912586571</v>
       </c>
       <c r="M17">
-        <v>13.37379180040011</v>
+        <v>13.64994602521966</v>
       </c>
       <c r="N17">
-        <v>4.775722852674058</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.828163597606823</v>
+        <v>13.59660285074769</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.97245997272886</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.778425049125813</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42507233802874</v>
+        <v>14.31064907789358</v>
       </c>
       <c r="C18">
-        <v>9.818183568066843</v>
+        <v>10.45175129669899</v>
       </c>
       <c r="D18">
-        <v>8.306057289143528</v>
+        <v>8.320280398129642</v>
       </c>
       <c r="E18">
-        <v>6.156836571208829</v>
+        <v>6.17353314069097</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.29099502897763</v>
+        <v>38.24971851887091</v>
       </c>
       <c r="H18">
-        <v>5.308638823609904</v>
+        <v>5.19762121907617</v>
       </c>
       <c r="I18">
-        <v>3.897829459644278</v>
+        <v>3.678660339609964</v>
       </c>
       <c r="J18">
-        <v>13.85334745998962</v>
+        <v>12.6015569117346</v>
       </c>
       <c r="K18">
-        <v>22.64059293517446</v>
+        <v>19.84323738570028</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.03322221369956</v>
       </c>
       <c r="M18">
-        <v>13.11446129468529</v>
+        <v>14.36152372220687</v>
       </c>
       <c r="N18">
-        <v>5.139937175035735</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.184433609543092</v>
+        <v>13.35834594527928</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.347294719183977</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.132706015494719</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.3827295575377</v>
+        <v>14.2374643011076</v>
       </c>
       <c r="C19">
-        <v>9.417647613683521</v>
+        <v>10.13245526011933</v>
       </c>
       <c r="D19">
-        <v>8.273072200653656</v>
+        <v>8.286471632512647</v>
       </c>
       <c r="E19">
-        <v>6.282514033832102</v>
+        <v>6.191958356670016</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.1205698603808</v>
+        <v>41.23403242459721</v>
       </c>
       <c r="H19">
-        <v>4.078237630915548</v>
+        <v>3.941046436109454</v>
       </c>
       <c r="I19">
-        <v>3.871581075138597</v>
+        <v>3.660855541754449</v>
       </c>
       <c r="J19">
-        <v>14.6507632003465</v>
+        <v>13.23238224900844</v>
       </c>
       <c r="K19">
-        <v>24.27094234576065</v>
+        <v>21.04907365261011</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.9536325930652</v>
       </c>
       <c r="M19">
-        <v>12.93847533310633</v>
+        <v>15.26884827646305</v>
       </c>
       <c r="N19">
-        <v>5.746392224282503</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.703213865718997</v>
+        <v>13.20501004238586</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.960840579439383</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.649805290214225</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69684135880966</v>
+        <v>14.49612489331318</v>
       </c>
       <c r="C20">
-        <v>9.08420807393645</v>
+        <v>9.90719383929115</v>
       </c>
       <c r="D20">
-        <v>8.446594715660261</v>
+        <v>8.45736646758086</v>
       </c>
       <c r="E20">
-        <v>7.142365958357094</v>
+        <v>6.862317247545965</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.6539182314222</v>
+        <v>46.36259358458247</v>
       </c>
       <c r="H20">
-        <v>2.913929058871558</v>
+        <v>2.764617873738977</v>
       </c>
       <c r="I20">
-        <v>3.708258211072307</v>
+        <v>3.530081371840183</v>
       </c>
       <c r="J20">
-        <v>16.00310222420219</v>
+        <v>14.08532595772667</v>
       </c>
       <c r="K20">
-        <v>27.04153727225694</v>
+        <v>22.9656351689687</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.35445039416097</v>
       </c>
       <c r="M20">
-        <v>12.99899954558189</v>
+        <v>16.7806059368361</v>
       </c>
       <c r="N20">
-        <v>6.897697706651551</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.64081015333436</v>
+        <v>13.29236066431958</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.113817367013398</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.58544749311247</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.60161339193141</v>
+        <v>15.39019576120356</v>
       </c>
       <c r="C21">
-        <v>9.596460259115469</v>
+        <v>10.35501576945619</v>
       </c>
       <c r="D21">
-        <v>8.98769570304416</v>
+        <v>8.994005742500546</v>
       </c>
       <c r="E21">
-        <v>7.499383151368116</v>
+        <v>7.171919243962066</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.32622472999878</v>
+        <v>49.07605454599066</v>
       </c>
       <c r="H21">
-        <v>2.588752967902862</v>
+        <v>2.486385824364548</v>
       </c>
       <c r="I21">
-        <v>3.431312268220728</v>
+        <v>3.308330246456121</v>
       </c>
       <c r="J21">
-        <v>16.48905202101275</v>
+        <v>13.22008631959909</v>
       </c>
       <c r="K21">
-        <v>27.98258091097327</v>
+        <v>23.00178359315118</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.19704657150547</v>
       </c>
       <c r="M21">
-        <v>13.74119224716006</v>
+        <v>17.02365907581048</v>
       </c>
       <c r="N21">
-        <v>7.238742684796297</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.15805100757102</v>
+        <v>14.00220237053654</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.427312105557543</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.10738263477721</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.17125485611516</v>
+        <v>15.95624696086561</v>
       </c>
       <c r="C22">
-        <v>9.928051503158395</v>
+        <v>10.63361496299165</v>
       </c>
       <c r="D22">
-        <v>9.327646580484846</v>
+        <v>9.330776466248237</v>
       </c>
       <c r="E22">
-        <v>7.683496557444344</v>
+        <v>7.335173579303916</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.88667732724716</v>
+        <v>50.7845707672122</v>
       </c>
       <c r="H22">
-        <v>2.392338841954201</v>
+        <v>2.31999612614666</v>
       </c>
       <c r="I22">
-        <v>3.246632307579405</v>
+        <v>3.156761364799999</v>
       </c>
       <c r="J22">
-        <v>16.77257507830567</v>
+        <v>12.59444931993193</v>
       </c>
       <c r="K22">
-        <v>28.52588767515005</v>
+        <v>22.95453190436638</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.04300124856009</v>
       </c>
       <c r="M22">
-        <v>14.21162971319706</v>
+        <v>17.13276783027628</v>
       </c>
       <c r="N22">
-        <v>7.401320549125058</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.45023110534528</v>
+        <v>14.44892183172723</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.571408940546117</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.40235872296639</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.8749497570518</v>
+        <v>15.6575136686612</v>
       </c>
       <c r="C23">
-        <v>9.734984642339649</v>
+        <v>10.48684994675213</v>
       </c>
       <c r="D23">
-        <v>9.147605958153756</v>
+        <v>9.15258599126785</v>
       </c>
       <c r="E23">
-        <v>7.591511486881135</v>
+        <v>7.25076178637262</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.18557121261693</v>
+        <v>49.88190403143381</v>
       </c>
       <c r="H23">
-        <v>2.495199253076696</v>
+        <v>2.405919758264175</v>
       </c>
       <c r="I23">
-        <v>3.333685485712179</v>
+        <v>3.223180137561758</v>
       </c>
       <c r="J23">
-        <v>16.64957084642747</v>
+        <v>13.07361820303692</v>
       </c>
       <c r="K23">
-        <v>28.29695985646279</v>
+        <v>23.08268729535786</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.20073170574824</v>
       </c>
       <c r="M23">
-        <v>13.95870906988642</v>
+        <v>17.15385652365309</v>
       </c>
       <c r="N23">
-        <v>7.313950145980103</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.2957306539142</v>
+        <v>14.21368790238766</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.49609781844778</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.24568755195218</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69341324397571</v>
+        <v>14.48846317954761</v>
       </c>
       <c r="C24">
-        <v>9.012546134184685</v>
+        <v>9.840581441868226</v>
       </c>
       <c r="D24">
-        <v>8.438387780178964</v>
+        <v>8.449021613118141</v>
       </c>
       <c r="E24">
-        <v>7.225900828438937</v>
+        <v>6.932145756477269</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.25506362450612</v>
+        <v>46.84443527204741</v>
       </c>
       <c r="H24">
-        <v>2.894231955764606</v>
+        <v>2.745713020915363</v>
       </c>
       <c r="I24">
-        <v>3.688974767865377</v>
+        <v>3.508852632019563</v>
       </c>
       <c r="J24">
-        <v>16.1337413503288</v>
+        <v>14.19823176959886</v>
       </c>
       <c r="K24">
-        <v>27.31636184039051</v>
+        <v>23.18239713840111</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.52156091554827</v>
       </c>
       <c r="M24">
-        <v>12.96845838152755</v>
+        <v>16.9414634072185</v>
       </c>
       <c r="N24">
-        <v>6.976324007197015</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.69271553049294</v>
+        <v>13.26460839910763</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.193527010029698</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.63692635711596</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30901814185057</v>
+        <v>13.16082921532036</v>
       </c>
       <c r="C25">
-        <v>8.193025980285931</v>
+        <v>8.878279609562988</v>
       </c>
       <c r="D25">
-        <v>7.614251618369814</v>
+        <v>7.628065060458246</v>
       </c>
       <c r="E25">
-        <v>6.81450076337438</v>
+        <v>6.595927610383288</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.95634416926909</v>
+        <v>44.62853861444486</v>
       </c>
       <c r="H25">
-        <v>3.340291984045964</v>
+        <v>3.1423172049095</v>
       </c>
       <c r="I25">
-        <v>4.088380253731068</v>
+        <v>3.84900562013807</v>
       </c>
       <c r="J25">
-        <v>15.56924442909165</v>
+        <v>13.94313954698496</v>
       </c>
       <c r="K25">
-        <v>26.22739114845648</v>
+        <v>22.67748881554623</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.40354727342427</v>
       </c>
       <c r="M25">
-        <v>11.81810188436422</v>
+        <v>16.27634519110634</v>
       </c>
       <c r="N25">
-        <v>6.595057929937136</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.00822007849043</v>
+        <v>12.10265267919035</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.827736232952638</v>
       </c>
       <c r="Q25">
+        <v>9.951576259947949</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
